--- a/01 회원사사용료현황.xlsx
+++ b/01 회원사사용료현황.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_조합업무\00 조합공통사항\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\02_GimaekBill\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2238,7 +2238,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
+      <color theme="2"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -5544,6 +5544,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5625,6 +5628,9 @@
     <xf numFmtId="41" fontId="3" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="7" fillId="7" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5702,12 +5708,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6053,56 +6053,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="805" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="806"/>
-      <c r="C2" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="810"/>
-      <c r="E2" s="810"/>
-      <c r="F2" s="810"/>
-      <c r="G2" s="810"/>
-      <c r="H2" s="810"/>
-      <c r="I2" s="811"/>
-      <c r="J2" s="789" t="s">
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
+      <c r="J2" s="790" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="790"/>
-      <c r="L2" s="790"/>
-      <c r="M2" s="790"/>
-      <c r="N2" s="790"/>
-      <c r="O2" s="790"/>
-      <c r="P2" s="790"/>
-      <c r="Q2" s="791"/>
+      <c r="K2" s="791"/>
+      <c r="L2" s="791"/>
+      <c r="M2" s="791"/>
+      <c r="N2" s="791"/>
+      <c r="O2" s="791"/>
+      <c r="P2" s="791"/>
+      <c r="Q2" s="792"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="792" t="s">
+      <c r="S2" s="793" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="793"/>
-      <c r="U2" s="796" t="s">
+      <c r="T2" s="794"/>
+      <c r="U2" s="797" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="797"/>
-      <c r="W2" s="797"/>
-      <c r="X2" s="797"/>
-      <c r="Y2" s="797"/>
-      <c r="Z2" s="797"/>
-      <c r="AA2" s="798"/>
-      <c r="AB2" s="788" t="s">
+      <c r="V2" s="798"/>
+      <c r="W2" s="798"/>
+      <c r="X2" s="798"/>
+      <c r="Y2" s="798"/>
+      <c r="Z2" s="798"/>
+      <c r="AA2" s="799"/>
+      <c r="AB2" s="789" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="788"/>
-      <c r="AD2" s="788"/>
-      <c r="AE2" s="788"/>
-      <c r="AG2" s="788" t="s">
+      <c r="AC2" s="789"/>
+      <c r="AD2" s="789"/>
+      <c r="AE2" s="789"/>
+      <c r="AG2" s="789" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="807"/>
-      <c r="B3" s="808"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -6149,8 +6149,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="794"/>
-      <c r="T3" s="795"/>
+      <c r="S3" s="795"/>
+      <c r="T3" s="796"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -6184,7 +6184,7 @@
       <c r="AE3" s="406" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="788"/>
+      <c r="AG3" s="789"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="613" t="s">
@@ -9975,21 +9975,21 @@
       <c r="AG62" s="86"/>
     </row>
     <row r="63" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A63" s="801" t="s">
+      <c r="A63" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B63" s="802"/>
+      <c r="B63" s="803"/>
       <c r="C63" s="580"/>
       <c r="D63" s="580"/>
       <c r="E63" s="581"/>
       <c r="F63" s="583">
         <v>41</v>
       </c>
-      <c r="G63" s="799">
+      <c r="G63" s="800">
         <f>SUM(F4:H62)</f>
         <v>10100000</v>
       </c>
-      <c r="H63" s="800"/>
+      <c r="H63" s="801"/>
       <c r="I63" s="553"/>
       <c r="J63" s="582">
         <f>SUM(J4:J62)</f>
@@ -10008,10 +10008,10 @@
       </c>
       <c r="P63" s="555"/>
       <c r="Q63" s="556"/>
-      <c r="S63" s="803" t="s">
+      <c r="S63" s="804" t="s">
         <v>377</v>
       </c>
-      <c r="T63" s="804"/>
+      <c r="T63" s="805"/>
       <c r="U63" s="628">
         <f>SUM(U4:U62)</f>
         <v>10</v>
@@ -10058,7 +10058,7 @@
   </sheetPr>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection sqref="A1:O82"/>
     </sheetView>
   </sheetViews>
@@ -10081,36 +10081,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" thickBot="1">
-      <c r="A1" s="841" t="s">
+      <c r="A1" s="816" t="s">
         <v>443</v>
       </c>
-      <c r="B1" s="841"/>
+      <c r="B1" s="816"/>
       <c r="G1" s="381"/>
       <c r="N1" s="507"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="805" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="806"/>
-      <c r="C2" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="810"/>
-      <c r="E2" s="810"/>
-      <c r="F2" s="810"/>
-      <c r="G2" s="810"/>
-      <c r="H2" s="810"/>
-      <c r="I2" s="811"/>
-      <c r="J2" s="815"/>
-      <c r="K2" s="816"/>
-      <c r="L2" s="816"/>
-      <c r="M2" s="816"/>
-      <c r="N2" s="817"/>
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
+      <c r="J2" s="817"/>
+      <c r="K2" s="818"/>
+      <c r="L2" s="818"/>
+      <c r="M2" s="818"/>
+      <c r="N2" s="819"/>
     </row>
     <row r="3" spans="1:15" ht="33.75" thickBot="1">
-      <c r="A3" s="807"/>
-      <c r="B3" s="808"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -10183,7 +10183,7 @@
         <f>SUM(L4:M4)</f>
         <v>40000</v>
       </c>
-      <c r="O4" s="842">
+      <c r="O4" s="788">
         <f>J4*N4*3</f>
         <v>8040000</v>
       </c>
@@ -12292,19 +12292,19 @@
       </c>
     </row>
     <row r="82" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A82" s="801" t="s">
+      <c r="A82" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B82" s="802"/>
+      <c r="B82" s="803"/>
       <c r="C82" s="580"/>
       <c r="D82" s="580"/>
       <c r="E82" s="581"/>
-      <c r="F82" s="812">
+      <c r="F82" s="813">
         <f>SUM(F4:H81)</f>
         <v>10300000</v>
       </c>
-      <c r="G82" s="813"/>
-      <c r="H82" s="814"/>
+      <c r="G82" s="814"/>
+      <c r="H82" s="815"/>
       <c r="I82" s="553"/>
       <c r="J82" s="582">
         <f>SUM(J4:J81)</f>
@@ -12377,51 +12377,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="822" t="s">
+      <c r="A1" s="824" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="823"/>
-      <c r="C1" s="824"/>
-      <c r="D1" s="828" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="829"/>
-      <c r="F1" s="829"/>
-      <c r="G1" s="829"/>
-      <c r="H1" s="829"/>
-      <c r="I1" s="829"/>
-      <c r="J1" s="830"/>
-      <c r="K1" s="790" t="s">
+      <c r="B1" s="825"/>
+      <c r="C1" s="826"/>
+      <c r="D1" s="830" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="831"/>
+      <c r="F1" s="831"/>
+      <c r="G1" s="831"/>
+      <c r="H1" s="831"/>
+      <c r="I1" s="831"/>
+      <c r="J1" s="832"/>
+      <c r="K1" s="791" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="790"/>
-      <c r="M1" s="790"/>
-      <c r="N1" s="790"/>
-      <c r="O1" s="790"/>
-      <c r="P1" s="790"/>
-      <c r="Q1" s="790"/>
-      <c r="R1" s="819" t="s">
+      <c r="L1" s="791"/>
+      <c r="M1" s="791"/>
+      <c r="N1" s="791"/>
+      <c r="O1" s="791"/>
+      <c r="P1" s="791"/>
+      <c r="Q1" s="791"/>
+      <c r="R1" s="821" t="s">
         <v>318</v>
       </c>
-      <c r="S1" s="820"/>
-      <c r="T1" s="820"/>
-      <c r="U1" s="820"/>
-      <c r="V1" s="820"/>
-      <c r="W1" s="821"/>
-      <c r="X1" s="831" t="s">
+      <c r="S1" s="822"/>
+      <c r="T1" s="822"/>
+      <c r="U1" s="822"/>
+      <c r="V1" s="822"/>
+      <c r="W1" s="823"/>
+      <c r="X1" s="833" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="831"/>
-      <c r="Z1" s="831"/>
-      <c r="AA1" s="831"/>
-      <c r="AC1" s="818" t="s">
+      <c r="Y1" s="833"/>
+      <c r="Z1" s="833"/>
+      <c r="AA1" s="833"/>
+      <c r="AC1" s="820" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="33.75" thickBot="1">
-      <c r="A2" s="825"/>
-      <c r="B2" s="826"/>
-      <c r="C2" s="827"/>
+      <c r="A2" s="827"/>
+      <c r="B2" s="828"/>
+      <c r="C2" s="829"/>
       <c r="D2" s="271" t="s">
         <v>46</v>
       </c>
@@ -12494,7 +12494,7 @@
       <c r="AA2" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" s="818"/>
+      <c r="AC2" s="820"/>
     </row>
     <row r="3" spans="1:31" s="11" customFormat="1" ht="17.25" thickBot="1">
       <c r="A3" s="142" t="s">
@@ -18432,51 +18432,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="818" t="s">
+      <c r="A1" s="820" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="818"/>
-      <c r="C1" s="818"/>
-      <c r="D1" s="832" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="832"/>
-      <c r="F1" s="832"/>
-      <c r="G1" s="832"/>
-      <c r="H1" s="832"/>
-      <c r="I1" s="832"/>
-      <c r="J1" s="832"/>
-      <c r="K1" s="833" t="s">
+      <c r="B1" s="820"/>
+      <c r="C1" s="820"/>
+      <c r="D1" s="834" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="834"/>
+      <c r="F1" s="834"/>
+      <c r="G1" s="834"/>
+      <c r="H1" s="834"/>
+      <c r="I1" s="834"/>
+      <c r="J1" s="834"/>
+      <c r="K1" s="835" t="s">
         <v>156</v>
       </c>
-      <c r="L1" s="833"/>
-      <c r="M1" s="833"/>
-      <c r="N1" s="833"/>
-      <c r="O1" s="833"/>
-      <c r="P1" s="833"/>
-      <c r="Q1" s="833"/>
-      <c r="R1" s="834" t="s">
+      <c r="L1" s="835"/>
+      <c r="M1" s="835"/>
+      <c r="N1" s="835"/>
+      <c r="O1" s="835"/>
+      <c r="P1" s="835"/>
+      <c r="Q1" s="835"/>
+      <c r="R1" s="836" t="s">
         <v>157</v>
       </c>
-      <c r="S1" s="834"/>
-      <c r="T1" s="834"/>
-      <c r="U1" s="834"/>
-      <c r="V1" s="834"/>
-      <c r="W1" s="834"/>
-      <c r="X1" s="831" t="s">
+      <c r="S1" s="836"/>
+      <c r="T1" s="836"/>
+      <c r="U1" s="836"/>
+      <c r="V1" s="836"/>
+      <c r="W1" s="836"/>
+      <c r="X1" s="833" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="831"/>
-      <c r="Z1" s="831"/>
-      <c r="AA1" s="831"/>
-      <c r="AC1" s="818" t="s">
+      <c r="Y1" s="833"/>
+      <c r="Z1" s="833"/>
+      <c r="AA1" s="833"/>
+      <c r="AC1" s="820" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="33">
-      <c r="A2" s="818"/>
-      <c r="B2" s="818"/>
-      <c r="C2" s="818"/>
+      <c r="A2" s="820"/>
+      <c r="B2" s="820"/>
+      <c r="C2" s="820"/>
       <c r="D2" s="310" t="s">
         <v>46</v>
       </c>
@@ -18549,7 +18549,7 @@
       <c r="AA2" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" s="818"/>
+      <c r="AC2" s="820"/>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="72" t="s">
@@ -21916,16 +21916,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C1" s="835" t="s">
+      <c r="C1" s="837" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="836"/>
-      <c r="E1" s="837"/>
+      <c r="D1" s="838"/>
+      <c r="E1" s="839"/>
     </row>
     <row r="2" spans="1:5" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="C2" s="838"/>
-      <c r="D2" s="839"/>
-      <c r="E2" s="840"/>
+      <c r="C2" s="840"/>
+      <c r="D2" s="841"/>
+      <c r="E2" s="842"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B3" s="2" t="s">
@@ -22514,56 +22514,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="805" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="806"/>
-      <c r="C2" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="810"/>
-      <c r="E2" s="810"/>
-      <c r="F2" s="810"/>
-      <c r="G2" s="810"/>
-      <c r="H2" s="810"/>
-      <c r="I2" s="811"/>
-      <c r="J2" s="789" t="s">
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
+      <c r="J2" s="790" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="790"/>
-      <c r="L2" s="790"/>
-      <c r="M2" s="790"/>
-      <c r="N2" s="790"/>
-      <c r="O2" s="790"/>
-      <c r="P2" s="790"/>
-      <c r="Q2" s="791"/>
+      <c r="K2" s="791"/>
+      <c r="L2" s="791"/>
+      <c r="M2" s="791"/>
+      <c r="N2" s="791"/>
+      <c r="O2" s="791"/>
+      <c r="P2" s="791"/>
+      <c r="Q2" s="792"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="792" t="s">
+      <c r="S2" s="793" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="793"/>
-      <c r="U2" s="796" t="s">
+      <c r="T2" s="794"/>
+      <c r="U2" s="797" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="797"/>
-      <c r="W2" s="797"/>
-      <c r="X2" s="797"/>
-      <c r="Y2" s="797"/>
-      <c r="Z2" s="797"/>
-      <c r="AA2" s="798"/>
-      <c r="AB2" s="788" t="s">
+      <c r="V2" s="798"/>
+      <c r="W2" s="798"/>
+      <c r="X2" s="798"/>
+      <c r="Y2" s="798"/>
+      <c r="Z2" s="798"/>
+      <c r="AA2" s="799"/>
+      <c r="AB2" s="789" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="788"/>
-      <c r="AD2" s="788"/>
-      <c r="AE2" s="788"/>
-      <c r="AG2" s="788" t="s">
+      <c r="AC2" s="789"/>
+      <c r="AD2" s="789"/>
+      <c r="AE2" s="789"/>
+      <c r="AG2" s="789" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="807"/>
-      <c r="B3" s="808"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -22610,8 +22610,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="794"/>
-      <c r="T3" s="795"/>
+      <c r="S3" s="795"/>
+      <c r="T3" s="796"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -22645,7 +22645,7 @@
       <c r="AE3" s="633" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="788"/>
+      <c r="AG3" s="789"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -26454,19 +26454,19 @@
       <c r="AG62" s="86"/>
     </row>
     <row r="63" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A63" s="801" t="s">
+      <c r="A63" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B63" s="802"/>
+      <c r="B63" s="803"/>
       <c r="C63" s="580"/>
       <c r="D63" s="580"/>
       <c r="E63" s="581"/>
-      <c r="F63" s="812">
+      <c r="F63" s="813">
         <f>SUM(F4:H62)</f>
         <v>10200000</v>
       </c>
-      <c r="G63" s="813"/>
-      <c r="H63" s="814"/>
+      <c r="G63" s="814"/>
+      <c r="H63" s="815"/>
       <c r="I63" s="690"/>
       <c r="J63" s="696">
         <f>SUM(J4:J62)</f>
@@ -26485,10 +26485,10 @@
       </c>
       <c r="P63" s="555"/>
       <c r="Q63" s="556"/>
-      <c r="S63" s="803" t="s">
+      <c r="S63" s="804" t="s">
         <v>377</v>
       </c>
-      <c r="T63" s="804"/>
+      <c r="T63" s="805"/>
       <c r="U63" s="628">
         <f>SUM(U4:U62)</f>
         <v>161</v>
@@ -26584,56 +26584,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="805" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="806"/>
-      <c r="C2" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="810"/>
-      <c r="E2" s="810"/>
-      <c r="F2" s="810"/>
-      <c r="G2" s="810"/>
-      <c r="H2" s="810"/>
-      <c r="I2" s="811"/>
-      <c r="J2" s="789" t="s">
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
+      <c r="J2" s="790" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="790"/>
-      <c r="L2" s="790"/>
-      <c r="M2" s="790"/>
-      <c r="N2" s="790"/>
-      <c r="O2" s="790"/>
-      <c r="P2" s="790"/>
-      <c r="Q2" s="791"/>
+      <c r="K2" s="791"/>
+      <c r="L2" s="791"/>
+      <c r="M2" s="791"/>
+      <c r="N2" s="791"/>
+      <c r="O2" s="791"/>
+      <c r="P2" s="791"/>
+      <c r="Q2" s="792"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="792" t="s">
+      <c r="S2" s="793" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="793"/>
-      <c r="U2" s="796" t="s">
+      <c r="T2" s="794"/>
+      <c r="U2" s="797" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="797"/>
-      <c r="W2" s="797"/>
-      <c r="X2" s="797"/>
-      <c r="Y2" s="797"/>
-      <c r="Z2" s="797"/>
-      <c r="AA2" s="798"/>
-      <c r="AB2" s="788" t="s">
+      <c r="V2" s="798"/>
+      <c r="W2" s="798"/>
+      <c r="X2" s="798"/>
+      <c r="Y2" s="798"/>
+      <c r="Z2" s="798"/>
+      <c r="AA2" s="799"/>
+      <c r="AB2" s="789" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="788"/>
-      <c r="AD2" s="788"/>
-      <c r="AE2" s="788"/>
-      <c r="AG2" s="788" t="s">
+      <c r="AC2" s="789"/>
+      <c r="AD2" s="789"/>
+      <c r="AE2" s="789"/>
+      <c r="AG2" s="789" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="807"/>
-      <c r="B3" s="808"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -26680,8 +26680,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="794"/>
-      <c r="T3" s="795"/>
+      <c r="S3" s="795"/>
+      <c r="T3" s="796"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -26715,7 +26715,7 @@
       <c r="AE3" s="697" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="788"/>
+      <c r="AG3" s="789"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -30525,19 +30525,19 @@
       <c r="AG62" s="86"/>
     </row>
     <row r="63" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A63" s="801" t="s">
+      <c r="A63" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B63" s="802"/>
+      <c r="B63" s="803"/>
       <c r="C63" s="580"/>
       <c r="D63" s="580"/>
       <c r="E63" s="581"/>
-      <c r="F63" s="812">
+      <c r="F63" s="813">
         <f>SUM(F4:H62)</f>
         <v>10300000</v>
       </c>
-      <c r="G63" s="813"/>
-      <c r="H63" s="814"/>
+      <c r="G63" s="814"/>
+      <c r="H63" s="815"/>
       <c r="I63" s="690"/>
       <c r="J63" s="696">
         <v>970</v>
@@ -30555,10 +30555,10 @@
       </c>
       <c r="P63" s="555"/>
       <c r="Q63" s="556"/>
-      <c r="S63" s="803" t="s">
+      <c r="S63" s="804" t="s">
         <v>377</v>
       </c>
-      <c r="T63" s="804"/>
+      <c r="T63" s="805"/>
       <c r="U63" s="628">
         <f>SUM(U4:U62)</f>
         <v>157</v>
@@ -30654,56 +30654,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="805" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="806"/>
-      <c r="C2" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="810"/>
-      <c r="E2" s="810"/>
-      <c r="F2" s="810"/>
-      <c r="G2" s="810"/>
-      <c r="H2" s="810"/>
-      <c r="I2" s="811"/>
-      <c r="J2" s="789" t="s">
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
+      <c r="J2" s="790" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="790"/>
-      <c r="L2" s="790"/>
-      <c r="M2" s="790"/>
-      <c r="N2" s="790"/>
-      <c r="O2" s="790"/>
-      <c r="P2" s="790"/>
-      <c r="Q2" s="791"/>
+      <c r="K2" s="791"/>
+      <c r="L2" s="791"/>
+      <c r="M2" s="791"/>
+      <c r="N2" s="791"/>
+      <c r="O2" s="791"/>
+      <c r="P2" s="791"/>
+      <c r="Q2" s="792"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="792" t="s">
+      <c r="S2" s="793" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="793"/>
-      <c r="U2" s="796" t="s">
+      <c r="T2" s="794"/>
+      <c r="U2" s="797" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="797"/>
-      <c r="W2" s="797"/>
-      <c r="X2" s="797"/>
-      <c r="Y2" s="797"/>
-      <c r="Z2" s="797"/>
-      <c r="AA2" s="798"/>
-      <c r="AB2" s="788" t="s">
+      <c r="V2" s="798"/>
+      <c r="W2" s="798"/>
+      <c r="X2" s="798"/>
+      <c r="Y2" s="798"/>
+      <c r="Z2" s="798"/>
+      <c r="AA2" s="799"/>
+      <c r="AB2" s="789" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="788"/>
-      <c r="AD2" s="788"/>
-      <c r="AE2" s="788"/>
-      <c r="AG2" s="788" t="s">
+      <c r="AC2" s="789"/>
+      <c r="AD2" s="789"/>
+      <c r="AE2" s="789"/>
+      <c r="AG2" s="789" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="807"/>
-      <c r="B3" s="808"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -30750,8 +30750,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="794"/>
-      <c r="T3" s="795"/>
+      <c r="S3" s="795"/>
+      <c r="T3" s="796"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -30785,7 +30785,7 @@
       <c r="AE3" s="758" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="788"/>
+      <c r="AG3" s="789"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -34641,19 +34641,19 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="801" t="s">
+      <c r="A64" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="802"/>
+      <c r="B64" s="803"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
-      <c r="F64" s="812">
+      <c r="F64" s="813">
         <f>SUM(F4:H63)</f>
         <v>10400000</v>
       </c>
-      <c r="G64" s="813"/>
-      <c r="H64" s="814"/>
+      <c r="G64" s="814"/>
+      <c r="H64" s="815"/>
       <c r="I64" s="690"/>
       <c r="J64" s="761">
         <f>SUM(J4:J63)</f>
@@ -34672,10 +34672,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="803" t="s">
+      <c r="S64" s="804" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="804"/>
+      <c r="T64" s="805"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -34771,56 +34771,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="805" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="806"/>
-      <c r="C2" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="810"/>
-      <c r="E2" s="810"/>
-      <c r="F2" s="810"/>
-      <c r="G2" s="810"/>
-      <c r="H2" s="810"/>
-      <c r="I2" s="811"/>
-      <c r="J2" s="789" t="s">
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
+      <c r="J2" s="790" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="790"/>
-      <c r="L2" s="790"/>
-      <c r="M2" s="790"/>
-      <c r="N2" s="790"/>
-      <c r="O2" s="790"/>
-      <c r="P2" s="790"/>
-      <c r="Q2" s="791"/>
+      <c r="K2" s="791"/>
+      <c r="L2" s="791"/>
+      <c r="M2" s="791"/>
+      <c r="N2" s="791"/>
+      <c r="O2" s="791"/>
+      <c r="P2" s="791"/>
+      <c r="Q2" s="792"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="792" t="s">
+      <c r="S2" s="793" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="793"/>
-      <c r="U2" s="796" t="s">
+      <c r="T2" s="794"/>
+      <c r="U2" s="797" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="797"/>
-      <c r="W2" s="797"/>
-      <c r="X2" s="797"/>
-      <c r="Y2" s="797"/>
-      <c r="Z2" s="797"/>
-      <c r="AA2" s="798"/>
-      <c r="AB2" s="788" t="s">
+      <c r="V2" s="798"/>
+      <c r="W2" s="798"/>
+      <c r="X2" s="798"/>
+      <c r="Y2" s="798"/>
+      <c r="Z2" s="798"/>
+      <c r="AA2" s="799"/>
+      <c r="AB2" s="789" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="788"/>
-      <c r="AD2" s="788"/>
-      <c r="AE2" s="788"/>
-      <c r="AG2" s="788" t="s">
+      <c r="AC2" s="789"/>
+      <c r="AD2" s="789"/>
+      <c r="AE2" s="789"/>
+      <c r="AG2" s="789" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="807"/>
-      <c r="B3" s="808"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -34867,8 +34867,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="794"/>
-      <c r="T3" s="795"/>
+      <c r="S3" s="795"/>
+      <c r="T3" s="796"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -34902,7 +34902,7 @@
       <c r="AE3" s="771" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="788"/>
+      <c r="AG3" s="789"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -38754,19 +38754,19 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="801" t="s">
+      <c r="A64" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="802"/>
+      <c r="B64" s="803"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
-      <c r="F64" s="812">
+      <c r="F64" s="813">
         <f>SUM(F4:H63)</f>
         <v>10400000</v>
       </c>
-      <c r="G64" s="813"/>
-      <c r="H64" s="814"/>
+      <c r="G64" s="814"/>
+      <c r="H64" s="815"/>
       <c r="I64" s="690"/>
       <c r="J64" s="761">
         <f>SUM(J4:J63)</f>
@@ -38785,10 +38785,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="803" t="s">
+      <c r="S64" s="804" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="804"/>
+      <c r="T64" s="805"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -38884,56 +38884,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="805" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="806"/>
-      <c r="C2" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="810"/>
-      <c r="E2" s="810"/>
-      <c r="F2" s="810"/>
-      <c r="G2" s="810"/>
-      <c r="H2" s="810"/>
-      <c r="I2" s="811"/>
-      <c r="J2" s="789" t="s">
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
+      <c r="J2" s="790" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="790"/>
-      <c r="L2" s="790"/>
-      <c r="M2" s="790"/>
-      <c r="N2" s="790"/>
-      <c r="O2" s="790"/>
-      <c r="P2" s="790"/>
-      <c r="Q2" s="791"/>
+      <c r="K2" s="791"/>
+      <c r="L2" s="791"/>
+      <c r="M2" s="791"/>
+      <c r="N2" s="791"/>
+      <c r="O2" s="791"/>
+      <c r="P2" s="791"/>
+      <c r="Q2" s="792"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="792" t="s">
+      <c r="S2" s="793" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="793"/>
-      <c r="U2" s="796" t="s">
+      <c r="T2" s="794"/>
+      <c r="U2" s="797" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="797"/>
-      <c r="W2" s="797"/>
-      <c r="X2" s="797"/>
-      <c r="Y2" s="797"/>
-      <c r="Z2" s="797"/>
-      <c r="AA2" s="798"/>
-      <c r="AB2" s="788" t="s">
+      <c r="V2" s="798"/>
+      <c r="W2" s="798"/>
+      <c r="X2" s="798"/>
+      <c r="Y2" s="798"/>
+      <c r="Z2" s="798"/>
+      <c r="AA2" s="799"/>
+      <c r="AB2" s="789" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="788"/>
-      <c r="AD2" s="788"/>
-      <c r="AE2" s="788"/>
-      <c r="AG2" s="788" t="s">
+      <c r="AC2" s="789"/>
+      <c r="AD2" s="789"/>
+      <c r="AE2" s="789"/>
+      <c r="AG2" s="789" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="807"/>
-      <c r="B3" s="808"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -38980,8 +38980,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="794"/>
-      <c r="T3" s="795"/>
+      <c r="S3" s="795"/>
+      <c r="T3" s="796"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -39015,7 +39015,7 @@
       <c r="AE3" s="770" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="788"/>
+      <c r="AG3" s="789"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -42863,19 +42863,19 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="801" t="s">
+      <c r="A64" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="802"/>
+      <c r="B64" s="803"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
-      <c r="F64" s="812">
+      <c r="F64" s="813">
         <f>SUM(F4:H63)</f>
         <v>10400000</v>
       </c>
-      <c r="G64" s="813"/>
-      <c r="H64" s="814"/>
+      <c r="G64" s="814"/>
+      <c r="H64" s="815"/>
       <c r="I64" s="690"/>
       <c r="J64" s="761">
         <v>991</v>
@@ -42893,10 +42893,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="803" t="s">
+      <c r="S64" s="804" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="804"/>
+      <c r="T64" s="805"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -42992,56 +42992,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="805" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="806"/>
-      <c r="C2" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="810"/>
-      <c r="E2" s="810"/>
-      <c r="F2" s="810"/>
-      <c r="G2" s="810"/>
-      <c r="H2" s="810"/>
-      <c r="I2" s="811"/>
-      <c r="J2" s="789" t="s">
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
+      <c r="J2" s="790" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="790"/>
-      <c r="L2" s="790"/>
-      <c r="M2" s="790"/>
-      <c r="N2" s="790"/>
-      <c r="O2" s="790"/>
-      <c r="P2" s="790"/>
-      <c r="Q2" s="791"/>
+      <c r="K2" s="791"/>
+      <c r="L2" s="791"/>
+      <c r="M2" s="791"/>
+      <c r="N2" s="791"/>
+      <c r="O2" s="791"/>
+      <c r="P2" s="791"/>
+      <c r="Q2" s="792"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="792" t="s">
+      <c r="S2" s="793" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="793"/>
-      <c r="U2" s="796" t="s">
+      <c r="T2" s="794"/>
+      <c r="U2" s="797" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="797"/>
-      <c r="W2" s="797"/>
-      <c r="X2" s="797"/>
-      <c r="Y2" s="797"/>
-      <c r="Z2" s="797"/>
-      <c r="AA2" s="798"/>
-      <c r="AB2" s="788" t="s">
+      <c r="V2" s="798"/>
+      <c r="W2" s="798"/>
+      <c r="X2" s="798"/>
+      <c r="Y2" s="798"/>
+      <c r="Z2" s="798"/>
+      <c r="AA2" s="799"/>
+      <c r="AB2" s="789" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="788"/>
-      <c r="AD2" s="788"/>
-      <c r="AE2" s="788"/>
-      <c r="AG2" s="788" t="s">
+      <c r="AC2" s="789"/>
+      <c r="AD2" s="789"/>
+      <c r="AE2" s="789"/>
+      <c r="AG2" s="789" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="807"/>
-      <c r="B3" s="808"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -43088,8 +43088,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="794"/>
-      <c r="T3" s="795"/>
+      <c r="S3" s="795"/>
+      <c r="T3" s="796"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -43123,7 +43123,7 @@
       <c r="AE3" s="778" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="788"/>
+      <c r="AG3" s="789"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -46971,19 +46971,19 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="801" t="s">
+      <c r="A64" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="802"/>
+      <c r="B64" s="803"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
-      <c r="F64" s="812">
+      <c r="F64" s="813">
         <f>SUM(F4:H63)</f>
         <v>10400000</v>
       </c>
-      <c r="G64" s="813"/>
-      <c r="H64" s="814"/>
+      <c r="G64" s="814"/>
+      <c r="H64" s="815"/>
       <c r="I64" s="690"/>
       <c r="J64" s="761">
         <v>991</v>
@@ -47001,10 +47001,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="803" t="s">
+      <c r="S64" s="804" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="804"/>
+      <c r="T64" s="805"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -47100,56 +47100,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="805" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="806"/>
-      <c r="C2" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="810"/>
-      <c r="E2" s="810"/>
-      <c r="F2" s="810"/>
-      <c r="G2" s="810"/>
-      <c r="H2" s="810"/>
-      <c r="I2" s="811"/>
-      <c r="J2" s="789" t="s">
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
+      <c r="J2" s="790" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="790"/>
-      <c r="L2" s="790"/>
-      <c r="M2" s="790"/>
-      <c r="N2" s="790"/>
-      <c r="O2" s="790"/>
-      <c r="P2" s="790"/>
-      <c r="Q2" s="791"/>
+      <c r="K2" s="791"/>
+      <c r="L2" s="791"/>
+      <c r="M2" s="791"/>
+      <c r="N2" s="791"/>
+      <c r="O2" s="791"/>
+      <c r="P2" s="791"/>
+      <c r="Q2" s="792"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="792" t="s">
+      <c r="S2" s="793" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="793"/>
-      <c r="U2" s="796" t="s">
+      <c r="T2" s="794"/>
+      <c r="U2" s="797" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="797"/>
-      <c r="W2" s="797"/>
-      <c r="X2" s="797"/>
-      <c r="Y2" s="797"/>
-      <c r="Z2" s="797"/>
-      <c r="AA2" s="798"/>
-      <c r="AB2" s="788" t="s">
+      <c r="V2" s="798"/>
+      <c r="W2" s="798"/>
+      <c r="X2" s="798"/>
+      <c r="Y2" s="798"/>
+      <c r="Z2" s="798"/>
+      <c r="AA2" s="799"/>
+      <c r="AB2" s="789" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="788"/>
-      <c r="AD2" s="788"/>
-      <c r="AE2" s="788"/>
-      <c r="AG2" s="788" t="s">
+      <c r="AC2" s="789"/>
+      <c r="AD2" s="789"/>
+      <c r="AE2" s="789"/>
+      <c r="AG2" s="789" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="807"/>
-      <c r="B3" s="808"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -47196,8 +47196,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="794"/>
-      <c r="T3" s="795"/>
+      <c r="S3" s="795"/>
+      <c r="T3" s="796"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -47231,7 +47231,7 @@
       <c r="AE3" s="779" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="788"/>
+      <c r="AG3" s="789"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -51079,19 +51079,19 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="801" t="s">
+      <c r="A64" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="802"/>
+      <c r="B64" s="803"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
-      <c r="F64" s="812">
+      <c r="F64" s="813">
         <f>SUM(F4:H63)</f>
         <v>10300000</v>
       </c>
-      <c r="G64" s="813"/>
-      <c r="H64" s="814"/>
+      <c r="G64" s="814"/>
+      <c r="H64" s="815"/>
       <c r="I64" s="690"/>
       <c r="J64" s="761">
         <f>SUM(J4:J63)</f>
@@ -51110,10 +51110,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="803" t="s">
+      <c r="S64" s="804" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="804"/>
+      <c r="T64" s="805"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -51209,56 +51209,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="805" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="806"/>
-      <c r="C2" s="809" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="810"/>
-      <c r="E2" s="810"/>
-      <c r="F2" s="810"/>
-      <c r="G2" s="810"/>
-      <c r="H2" s="810"/>
-      <c r="I2" s="811"/>
-      <c r="J2" s="789" t="s">
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
+      <c r="J2" s="790" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="790"/>
-      <c r="L2" s="790"/>
-      <c r="M2" s="790"/>
-      <c r="N2" s="790"/>
-      <c r="O2" s="790"/>
-      <c r="P2" s="790"/>
-      <c r="Q2" s="791"/>
+      <c r="K2" s="791"/>
+      <c r="L2" s="791"/>
+      <c r="M2" s="791"/>
+      <c r="N2" s="791"/>
+      <c r="O2" s="791"/>
+      <c r="P2" s="791"/>
+      <c r="Q2" s="792"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="792" t="s">
+      <c r="S2" s="793" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="793"/>
-      <c r="U2" s="796" t="s">
+      <c r="T2" s="794"/>
+      <c r="U2" s="797" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="797"/>
-      <c r="W2" s="797"/>
-      <c r="X2" s="797"/>
-      <c r="Y2" s="797"/>
-      <c r="Z2" s="797"/>
-      <c r="AA2" s="798"/>
-      <c r="AB2" s="788" t="s">
+      <c r="V2" s="798"/>
+      <c r="W2" s="798"/>
+      <c r="X2" s="798"/>
+      <c r="Y2" s="798"/>
+      <c r="Z2" s="798"/>
+      <c r="AA2" s="799"/>
+      <c r="AB2" s="789" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="788"/>
-      <c r="AD2" s="788"/>
-      <c r="AE2" s="788"/>
-      <c r="AG2" s="788" t="s">
+      <c r="AC2" s="789"/>
+      <c r="AD2" s="789"/>
+      <c r="AE2" s="789"/>
+      <c r="AG2" s="789" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="807"/>
-      <c r="B3" s="808"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -51305,8 +51305,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="794"/>
-      <c r="T3" s="795"/>
+      <c r="S3" s="795"/>
+      <c r="T3" s="796"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -51340,7 +51340,7 @@
       <c r="AE3" s="787" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="788"/>
+      <c r="AG3" s="789"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -55188,19 +55188,19 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="801" t="s">
+      <c r="A64" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="802"/>
+      <c r="B64" s="803"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
-      <c r="F64" s="812">
+      <c r="F64" s="813">
         <f>SUM(F4:H63)</f>
         <v>10300000</v>
       </c>
-      <c r="G64" s="813"/>
-      <c r="H64" s="814"/>
+      <c r="G64" s="814"/>
+      <c r="H64" s="815"/>
       <c r="I64" s="690"/>
       <c r="J64" s="761">
         <f>SUM(J4:J63)</f>
@@ -55219,10 +55219,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="803" t="s">
+      <c r="S64" s="804" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="804"/>
+      <c r="T64" s="805"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>

--- a/01 회원사사용료현황.xlsx
+++ b/01 회원사사용료현황.xlsx
@@ -34,6 +34,671 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Hana</author>
+  </authors>
+  <commentList>
+    <comment ref="H31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회원사와</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조합</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>연계시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조합</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>계산서비용은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않는다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회원사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>관급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>계산서비용을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조합에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내고</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있음</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H32" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회원사와</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조합</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>연계시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조합</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>계산서비용은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않는다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회원사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>관급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>계산서비용을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조합에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내고</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있음</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회원사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>연계를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안하기때문에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>계산서비용을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>받은다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1982,7 +2647,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10월</t>
+    <t>11월</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1995,7 +2660,7 @@
     <numFmt numFmtId="176" formatCode="#,##0\ &quot;개&quot;\ &quot;조&quot;&quot;합&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot; * 3개월 = &quot;\ #,##0&quot;원&quot;"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2243,6 +2908,27 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="16">
@@ -5547,6 +6233,45 @@
     <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="14" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="12" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="12" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="12" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5578,45 +6303,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="14" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="12" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="12" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="12" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5994,18 +6680,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q38" sqref="Q38"/>
       <selection pane="topRight" activeCell="Q38" sqref="Q38"/>
       <selection pane="bottomLeft" activeCell="Q38" sqref="Q38"/>
-      <selection pane="bottomRight" activeCell="Q38" sqref="Q38"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -6053,56 +6739,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="795" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
-      <c r="J2" s="790" t="s">
+      <c r="B2" s="796"/>
+      <c r="C2" s="799" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="800"/>
+      <c r="E2" s="800"/>
+      <c r="F2" s="800"/>
+      <c r="G2" s="800"/>
+      <c r="H2" s="800"/>
+      <c r="I2" s="801"/>
+      <c r="J2" s="803" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="791"/>
-      <c r="L2" s="791"/>
-      <c r="M2" s="791"/>
-      <c r="N2" s="791"/>
-      <c r="O2" s="791"/>
-      <c r="P2" s="791"/>
-      <c r="Q2" s="792"/>
+      <c r="K2" s="804"/>
+      <c r="L2" s="804"/>
+      <c r="M2" s="804"/>
+      <c r="N2" s="804"/>
+      <c r="O2" s="804"/>
+      <c r="P2" s="804"/>
+      <c r="Q2" s="805"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="793" t="s">
+      <c r="S2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="794"/>
-      <c r="U2" s="797" t="s">
+      <c r="T2" s="807"/>
+      <c r="U2" s="810" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="798"/>
-      <c r="W2" s="798"/>
-      <c r="X2" s="798"/>
-      <c r="Y2" s="798"/>
-      <c r="Z2" s="798"/>
-      <c r="AA2" s="799"/>
-      <c r="AB2" s="789" t="s">
+      <c r="V2" s="811"/>
+      <c r="W2" s="811"/>
+      <c r="X2" s="811"/>
+      <c r="Y2" s="811"/>
+      <c r="Z2" s="811"/>
+      <c r="AA2" s="812"/>
+      <c r="AB2" s="802" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="789"/>
-      <c r="AD2" s="789"/>
-      <c r="AE2" s="789"/>
-      <c r="AG2" s="789" t="s">
+      <c r="AC2" s="802"/>
+      <c r="AD2" s="802"/>
+      <c r="AE2" s="802"/>
+      <c r="AG2" s="802" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="797"/>
+      <c r="B3" s="798"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -6149,8 +6835,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="795"/>
-      <c r="T3" s="796"/>
+      <c r="S3" s="808"/>
+      <c r="T3" s="809"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -6184,7 +6870,7 @@
       <c r="AE3" s="406" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="789"/>
+      <c r="AG3" s="802"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="613" t="s">
@@ -9975,21 +10661,21 @@
       <c r="AG62" s="86"/>
     </row>
     <row r="63" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A63" s="802" t="s">
+      <c r="A63" s="791" t="s">
         <v>377</v>
       </c>
-      <c r="B63" s="803"/>
+      <c r="B63" s="792"/>
       <c r="C63" s="580"/>
       <c r="D63" s="580"/>
       <c r="E63" s="581"/>
       <c r="F63" s="583">
         <v>41</v>
       </c>
-      <c r="G63" s="800">
+      <c r="G63" s="789">
         <f>SUM(F4:H62)</f>
         <v>10100000</v>
       </c>
-      <c r="H63" s="801"/>
+      <c r="H63" s="790"/>
       <c r="I63" s="553"/>
       <c r="J63" s="582">
         <f>SUM(J4:J62)</f>
@@ -10008,10 +10694,10 @@
       </c>
       <c r="P63" s="555"/>
       <c r="Q63" s="556"/>
-      <c r="S63" s="804" t="s">
+      <c r="S63" s="793" t="s">
         <v>377</v>
       </c>
-      <c r="T63" s="805"/>
+      <c r="T63" s="794"/>
       <c r="U63" s="628">
         <f>SUM(U4:U62)</f>
         <v>10</v>
@@ -10032,21 +10718,22 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="S2:T3"/>
+    <mergeCell ref="U2:AA2"/>
     <mergeCell ref="G63:H63"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="S63:T63"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="S2:T3"/>
-    <mergeCell ref="U2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10058,8 +10745,8 @@
   </sheetPr>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection sqref="A1:O82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10089,19 +10776,19 @@
       <c r="N1" s="507"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="795" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
+      <c r="B2" s="796"/>
+      <c r="C2" s="799" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="800"/>
+      <c r="E2" s="800"/>
+      <c r="F2" s="800"/>
+      <c r="G2" s="800"/>
+      <c r="H2" s="800"/>
+      <c r="I2" s="801"/>
       <c r="J2" s="817"/>
       <c r="K2" s="818"/>
       <c r="L2" s="818"/>
@@ -10109,8 +10796,8 @@
       <c r="N2" s="819"/>
     </row>
     <row r="3" spans="1:15" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="797"/>
+      <c r="B3" s="798"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -10170,7 +10857,7 @@
       <c r="H4" s="518"/>
       <c r="I4" s="520"/>
       <c r="J4" s="636">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" s="518"/>
       <c r="L4" s="517">
@@ -10185,7 +10872,7 @@
       </c>
       <c r="O4" s="788">
         <f>J4*N4*3</f>
-        <v>8040000</v>
+        <v>8160000</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -10680,7 +11367,7 @@
         <v>300000</v>
       </c>
       <c r="J25" s="430">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K25" s="60"/>
       <c r="L25" s="626">
@@ -10982,7 +11669,7 @@
       <c r="H35" s="441"/>
       <c r="I35" s="488"/>
       <c r="J35" s="440">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K35" s="441"/>
       <c r="L35" s="286">
@@ -11319,7 +12006,7 @@
       <c r="H47" s="60"/>
       <c r="I47" s="484"/>
       <c r="J47" s="430">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K47" s="60"/>
       <c r="L47" s="288"/>
@@ -11773,7 +12460,7 @@
       <c r="H63" s="463"/>
       <c r="I63" s="492"/>
       <c r="J63" s="464">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K63" s="463"/>
       <c r="L63" s="288"/>
@@ -12213,7 +12900,7 @@
       <c r="H79" s="385"/>
       <c r="I79" s="487"/>
       <c r="J79" s="217">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K79" s="385"/>
       <c r="L79" s="284">
@@ -12292,10 +12979,10 @@
       </c>
     </row>
     <row r="82" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A82" s="802" t="s">
+      <c r="A82" s="791" t="s">
         <v>377</v>
       </c>
-      <c r="B82" s="803"/>
+      <c r="B82" s="792"/>
       <c r="C82" s="580"/>
       <c r="D82" s="580"/>
       <c r="E82" s="581"/>
@@ -12308,7 +12995,7 @@
       <c r="I82" s="553"/>
       <c r="J82" s="582">
         <f>SUM(J4:J81)</f>
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="K82" s="554"/>
       <c r="L82" s="552"/>
@@ -12391,15 +13078,15 @@
       <c r="H1" s="831"/>
       <c r="I1" s="831"/>
       <c r="J1" s="832"/>
-      <c r="K1" s="791" t="s">
+      <c r="K1" s="804" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="791"/>
-      <c r="M1" s="791"/>
-      <c r="N1" s="791"/>
-      <c r="O1" s="791"/>
-      <c r="P1" s="791"/>
-      <c r="Q1" s="791"/>
+      <c r="L1" s="804"/>
+      <c r="M1" s="804"/>
+      <c r="N1" s="804"/>
+      <c r="O1" s="804"/>
+      <c r="P1" s="804"/>
+      <c r="Q1" s="804"/>
       <c r="R1" s="821" t="s">
         <v>318</v>
       </c>
@@ -22464,11 +23151,11 @@
   <dimension ref="A1:AI63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q38" sqref="Q38"/>
       <selection pane="topRight" activeCell="Q38" sqref="Q38"/>
       <selection pane="bottomLeft" activeCell="Q38" sqref="Q38"/>
-      <selection pane="bottomRight" activeCell="Q38" sqref="Q38"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -22514,56 +23201,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="795" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
-      <c r="J2" s="790" t="s">
+      <c r="B2" s="796"/>
+      <c r="C2" s="799" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="800"/>
+      <c r="E2" s="800"/>
+      <c r="F2" s="800"/>
+      <c r="G2" s="800"/>
+      <c r="H2" s="800"/>
+      <c r="I2" s="801"/>
+      <c r="J2" s="803" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="791"/>
-      <c r="L2" s="791"/>
-      <c r="M2" s="791"/>
-      <c r="N2" s="791"/>
-      <c r="O2" s="791"/>
-      <c r="P2" s="791"/>
-      <c r="Q2" s="792"/>
+      <c r="K2" s="804"/>
+      <c r="L2" s="804"/>
+      <c r="M2" s="804"/>
+      <c r="N2" s="804"/>
+      <c r="O2" s="804"/>
+      <c r="P2" s="804"/>
+      <c r="Q2" s="805"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="793" t="s">
+      <c r="S2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="794"/>
-      <c r="U2" s="797" t="s">
+      <c r="T2" s="807"/>
+      <c r="U2" s="810" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="798"/>
-      <c r="W2" s="798"/>
-      <c r="X2" s="798"/>
-      <c r="Y2" s="798"/>
-      <c r="Z2" s="798"/>
-      <c r="AA2" s="799"/>
-      <c r="AB2" s="789" t="s">
+      <c r="V2" s="811"/>
+      <c r="W2" s="811"/>
+      <c r="X2" s="811"/>
+      <c r="Y2" s="811"/>
+      <c r="Z2" s="811"/>
+      <c r="AA2" s="812"/>
+      <c r="AB2" s="802" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="789"/>
-      <c r="AD2" s="789"/>
-      <c r="AE2" s="789"/>
-      <c r="AG2" s="789" t="s">
+      <c r="AC2" s="802"/>
+      <c r="AD2" s="802"/>
+      <c r="AE2" s="802"/>
+      <c r="AG2" s="802" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="797"/>
+      <c r="B3" s="798"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -22610,8 +23297,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="795"/>
-      <c r="T3" s="796"/>
+      <c r="S3" s="808"/>
+      <c r="T3" s="809"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -22645,7 +23332,7 @@
       <c r="AE3" s="633" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="789"/>
+      <c r="AG3" s="802"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -26454,10 +27141,10 @@
       <c r="AG62" s="86"/>
     </row>
     <row r="63" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A63" s="802" t="s">
+      <c r="A63" s="791" t="s">
         <v>377</v>
       </c>
-      <c r="B63" s="803"/>
+      <c r="B63" s="792"/>
       <c r="C63" s="580"/>
       <c r="D63" s="580"/>
       <c r="E63" s="581"/>
@@ -26485,10 +27172,10 @@
       </c>
       <c r="P63" s="555"/>
       <c r="Q63" s="556"/>
-      <c r="S63" s="804" t="s">
+      <c r="S63" s="793" t="s">
         <v>377</v>
       </c>
-      <c r="T63" s="805"/>
+      <c r="T63" s="794"/>
       <c r="U63" s="628">
         <f>SUM(U4:U62)</f>
         <v>161</v>
@@ -26584,56 +27271,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="795" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
-      <c r="J2" s="790" t="s">
+      <c r="B2" s="796"/>
+      <c r="C2" s="799" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="800"/>
+      <c r="E2" s="800"/>
+      <c r="F2" s="800"/>
+      <c r="G2" s="800"/>
+      <c r="H2" s="800"/>
+      <c r="I2" s="801"/>
+      <c r="J2" s="803" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="791"/>
-      <c r="L2" s="791"/>
-      <c r="M2" s="791"/>
-      <c r="N2" s="791"/>
-      <c r="O2" s="791"/>
-      <c r="P2" s="791"/>
-      <c r="Q2" s="792"/>
+      <c r="K2" s="804"/>
+      <c r="L2" s="804"/>
+      <c r="M2" s="804"/>
+      <c r="N2" s="804"/>
+      <c r="O2" s="804"/>
+      <c r="P2" s="804"/>
+      <c r="Q2" s="805"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="793" t="s">
+      <c r="S2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="794"/>
-      <c r="U2" s="797" t="s">
+      <c r="T2" s="807"/>
+      <c r="U2" s="810" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="798"/>
-      <c r="W2" s="798"/>
-      <c r="X2" s="798"/>
-      <c r="Y2" s="798"/>
-      <c r="Z2" s="798"/>
-      <c r="AA2" s="799"/>
-      <c r="AB2" s="789" t="s">
+      <c r="V2" s="811"/>
+      <c r="W2" s="811"/>
+      <c r="X2" s="811"/>
+      <c r="Y2" s="811"/>
+      <c r="Z2" s="811"/>
+      <c r="AA2" s="812"/>
+      <c r="AB2" s="802" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="789"/>
-      <c r="AD2" s="789"/>
-      <c r="AE2" s="789"/>
-      <c r="AG2" s="789" t="s">
+      <c r="AC2" s="802"/>
+      <c r="AD2" s="802"/>
+      <c r="AE2" s="802"/>
+      <c r="AG2" s="802" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="797"/>
+      <c r="B3" s="798"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -26680,8 +27367,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="795"/>
-      <c r="T3" s="796"/>
+      <c r="S3" s="808"/>
+      <c r="T3" s="809"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -26715,7 +27402,7 @@
       <c r="AE3" s="697" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="789"/>
+      <c r="AG3" s="802"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -30525,10 +31212,10 @@
       <c r="AG62" s="86"/>
     </row>
     <row r="63" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A63" s="802" t="s">
+      <c r="A63" s="791" t="s">
         <v>377</v>
       </c>
-      <c r="B63" s="803"/>
+      <c r="B63" s="792"/>
       <c r="C63" s="580"/>
       <c r="D63" s="580"/>
       <c r="E63" s="581"/>
@@ -30555,10 +31242,10 @@
       </c>
       <c r="P63" s="555"/>
       <c r="Q63" s="556"/>
-      <c r="S63" s="804" t="s">
+      <c r="S63" s="793" t="s">
         <v>377</v>
       </c>
-      <c r="T63" s="805"/>
+      <c r="T63" s="794"/>
       <c r="U63" s="628">
         <f>SUM(U4:U62)</f>
         <v>157</v>
@@ -30654,56 +31341,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="795" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
-      <c r="J2" s="790" t="s">
+      <c r="B2" s="796"/>
+      <c r="C2" s="799" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="800"/>
+      <c r="E2" s="800"/>
+      <c r="F2" s="800"/>
+      <c r="G2" s="800"/>
+      <c r="H2" s="800"/>
+      <c r="I2" s="801"/>
+      <c r="J2" s="803" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="791"/>
-      <c r="L2" s="791"/>
-      <c r="M2" s="791"/>
-      <c r="N2" s="791"/>
-      <c r="O2" s="791"/>
-      <c r="P2" s="791"/>
-      <c r="Q2" s="792"/>
+      <c r="K2" s="804"/>
+      <c r="L2" s="804"/>
+      <c r="M2" s="804"/>
+      <c r="N2" s="804"/>
+      <c r="O2" s="804"/>
+      <c r="P2" s="804"/>
+      <c r="Q2" s="805"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="793" t="s">
+      <c r="S2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="794"/>
-      <c r="U2" s="797" t="s">
+      <c r="T2" s="807"/>
+      <c r="U2" s="810" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="798"/>
-      <c r="W2" s="798"/>
-      <c r="X2" s="798"/>
-      <c r="Y2" s="798"/>
-      <c r="Z2" s="798"/>
-      <c r="AA2" s="799"/>
-      <c r="AB2" s="789" t="s">
+      <c r="V2" s="811"/>
+      <c r="W2" s="811"/>
+      <c r="X2" s="811"/>
+      <c r="Y2" s="811"/>
+      <c r="Z2" s="811"/>
+      <c r="AA2" s="812"/>
+      <c r="AB2" s="802" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="789"/>
-      <c r="AD2" s="789"/>
-      <c r="AE2" s="789"/>
-      <c r="AG2" s="789" t="s">
+      <c r="AC2" s="802"/>
+      <c r="AD2" s="802"/>
+      <c r="AE2" s="802"/>
+      <c r="AG2" s="802" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="797"/>
+      <c r="B3" s="798"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -30750,8 +31437,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="795"/>
-      <c r="T3" s="796"/>
+      <c r="S3" s="808"/>
+      <c r="T3" s="809"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -30785,7 +31472,7 @@
       <c r="AE3" s="758" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="789"/>
+      <c r="AG3" s="802"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -34641,10 +35328,10 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="802" t="s">
+      <c r="A64" s="791" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="803"/>
+      <c r="B64" s="792"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
@@ -34672,10 +35359,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="804" t="s">
+      <c r="S64" s="793" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="805"/>
+      <c r="T64" s="794"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -34771,56 +35458,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="795" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
-      <c r="J2" s="790" t="s">
+      <c r="B2" s="796"/>
+      <c r="C2" s="799" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="800"/>
+      <c r="E2" s="800"/>
+      <c r="F2" s="800"/>
+      <c r="G2" s="800"/>
+      <c r="H2" s="800"/>
+      <c r="I2" s="801"/>
+      <c r="J2" s="803" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="791"/>
-      <c r="L2" s="791"/>
-      <c r="M2" s="791"/>
-      <c r="N2" s="791"/>
-      <c r="O2" s="791"/>
-      <c r="P2" s="791"/>
-      <c r="Q2" s="792"/>
+      <c r="K2" s="804"/>
+      <c r="L2" s="804"/>
+      <c r="M2" s="804"/>
+      <c r="N2" s="804"/>
+      <c r="O2" s="804"/>
+      <c r="P2" s="804"/>
+      <c r="Q2" s="805"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="793" t="s">
+      <c r="S2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="794"/>
-      <c r="U2" s="797" t="s">
+      <c r="T2" s="807"/>
+      <c r="U2" s="810" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="798"/>
-      <c r="W2" s="798"/>
-      <c r="X2" s="798"/>
-      <c r="Y2" s="798"/>
-      <c r="Z2" s="798"/>
-      <c r="AA2" s="799"/>
-      <c r="AB2" s="789" t="s">
+      <c r="V2" s="811"/>
+      <c r="W2" s="811"/>
+      <c r="X2" s="811"/>
+      <c r="Y2" s="811"/>
+      <c r="Z2" s="811"/>
+      <c r="AA2" s="812"/>
+      <c r="AB2" s="802" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="789"/>
-      <c r="AD2" s="789"/>
-      <c r="AE2" s="789"/>
-      <c r="AG2" s="789" t="s">
+      <c r="AC2" s="802"/>
+      <c r="AD2" s="802"/>
+      <c r="AE2" s="802"/>
+      <c r="AG2" s="802" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="797"/>
+      <c r="B3" s="798"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -34867,8 +35554,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="795"/>
-      <c r="T3" s="796"/>
+      <c r="S3" s="808"/>
+      <c r="T3" s="809"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -34902,7 +35589,7 @@
       <c r="AE3" s="771" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="789"/>
+      <c r="AG3" s="802"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -38754,10 +39441,10 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="802" t="s">
+      <c r="A64" s="791" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="803"/>
+      <c r="B64" s="792"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
@@ -38785,10 +39472,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="804" t="s">
+      <c r="S64" s="793" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="805"/>
+      <c r="T64" s="794"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -38884,56 +39571,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="795" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
-      <c r="J2" s="790" t="s">
+      <c r="B2" s="796"/>
+      <c r="C2" s="799" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="800"/>
+      <c r="E2" s="800"/>
+      <c r="F2" s="800"/>
+      <c r="G2" s="800"/>
+      <c r="H2" s="800"/>
+      <c r="I2" s="801"/>
+      <c r="J2" s="803" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="791"/>
-      <c r="L2" s="791"/>
-      <c r="M2" s="791"/>
-      <c r="N2" s="791"/>
-      <c r="O2" s="791"/>
-      <c r="P2" s="791"/>
-      <c r="Q2" s="792"/>
+      <c r="K2" s="804"/>
+      <c r="L2" s="804"/>
+      <c r="M2" s="804"/>
+      <c r="N2" s="804"/>
+      <c r="O2" s="804"/>
+      <c r="P2" s="804"/>
+      <c r="Q2" s="805"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="793" t="s">
+      <c r="S2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="794"/>
-      <c r="U2" s="797" t="s">
+      <c r="T2" s="807"/>
+      <c r="U2" s="810" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="798"/>
-      <c r="W2" s="798"/>
-      <c r="X2" s="798"/>
-      <c r="Y2" s="798"/>
-      <c r="Z2" s="798"/>
-      <c r="AA2" s="799"/>
-      <c r="AB2" s="789" t="s">
+      <c r="V2" s="811"/>
+      <c r="W2" s="811"/>
+      <c r="X2" s="811"/>
+      <c r="Y2" s="811"/>
+      <c r="Z2" s="811"/>
+      <c r="AA2" s="812"/>
+      <c r="AB2" s="802" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="789"/>
-      <c r="AD2" s="789"/>
-      <c r="AE2" s="789"/>
-      <c r="AG2" s="789" t="s">
+      <c r="AC2" s="802"/>
+      <c r="AD2" s="802"/>
+      <c r="AE2" s="802"/>
+      <c r="AG2" s="802" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="797"/>
+      <c r="B3" s="798"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -38980,8 +39667,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="795"/>
-      <c r="T3" s="796"/>
+      <c r="S3" s="808"/>
+      <c r="T3" s="809"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -39015,7 +39702,7 @@
       <c r="AE3" s="770" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="789"/>
+      <c r="AG3" s="802"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -42863,10 +43550,10 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="802" t="s">
+      <c r="A64" s="791" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="803"/>
+      <c r="B64" s="792"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
@@ -42893,10 +43580,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="804" t="s">
+      <c r="S64" s="793" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="805"/>
+      <c r="T64" s="794"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -42992,56 +43679,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="795" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
-      <c r="J2" s="790" t="s">
+      <c r="B2" s="796"/>
+      <c r="C2" s="799" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="800"/>
+      <c r="E2" s="800"/>
+      <c r="F2" s="800"/>
+      <c r="G2" s="800"/>
+      <c r="H2" s="800"/>
+      <c r="I2" s="801"/>
+      <c r="J2" s="803" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="791"/>
-      <c r="L2" s="791"/>
-      <c r="M2" s="791"/>
-      <c r="N2" s="791"/>
-      <c r="O2" s="791"/>
-      <c r="P2" s="791"/>
-      <c r="Q2" s="792"/>
+      <c r="K2" s="804"/>
+      <c r="L2" s="804"/>
+      <c r="M2" s="804"/>
+      <c r="N2" s="804"/>
+      <c r="O2" s="804"/>
+      <c r="P2" s="804"/>
+      <c r="Q2" s="805"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="793" t="s">
+      <c r="S2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="794"/>
-      <c r="U2" s="797" t="s">
+      <c r="T2" s="807"/>
+      <c r="U2" s="810" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="798"/>
-      <c r="W2" s="798"/>
-      <c r="X2" s="798"/>
-      <c r="Y2" s="798"/>
-      <c r="Z2" s="798"/>
-      <c r="AA2" s="799"/>
-      <c r="AB2" s="789" t="s">
+      <c r="V2" s="811"/>
+      <c r="W2" s="811"/>
+      <c r="X2" s="811"/>
+      <c r="Y2" s="811"/>
+      <c r="Z2" s="811"/>
+      <c r="AA2" s="812"/>
+      <c r="AB2" s="802" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="789"/>
-      <c r="AD2" s="789"/>
-      <c r="AE2" s="789"/>
-      <c r="AG2" s="789" t="s">
+      <c r="AC2" s="802"/>
+      <c r="AD2" s="802"/>
+      <c r="AE2" s="802"/>
+      <c r="AG2" s="802" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="797"/>
+      <c r="B3" s="798"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -43088,8 +43775,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="795"/>
-      <c r="T3" s="796"/>
+      <c r="S3" s="808"/>
+      <c r="T3" s="809"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -43123,7 +43810,7 @@
       <c r="AE3" s="778" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="789"/>
+      <c r="AG3" s="802"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -46971,10 +47658,10 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="802" t="s">
+      <c r="A64" s="791" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="803"/>
+      <c r="B64" s="792"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
@@ -47001,10 +47688,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="804" t="s">
+      <c r="S64" s="793" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="805"/>
+      <c r="T64" s="794"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -47100,56 +47787,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="795" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
-      <c r="J2" s="790" t="s">
+      <c r="B2" s="796"/>
+      <c r="C2" s="799" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="800"/>
+      <c r="E2" s="800"/>
+      <c r="F2" s="800"/>
+      <c r="G2" s="800"/>
+      <c r="H2" s="800"/>
+      <c r="I2" s="801"/>
+      <c r="J2" s="803" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="791"/>
-      <c r="L2" s="791"/>
-      <c r="M2" s="791"/>
-      <c r="N2" s="791"/>
-      <c r="O2" s="791"/>
-      <c r="P2" s="791"/>
-      <c r="Q2" s="792"/>
+      <c r="K2" s="804"/>
+      <c r="L2" s="804"/>
+      <c r="M2" s="804"/>
+      <c r="N2" s="804"/>
+      <c r="O2" s="804"/>
+      <c r="P2" s="804"/>
+      <c r="Q2" s="805"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="793" t="s">
+      <c r="S2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="794"/>
-      <c r="U2" s="797" t="s">
+      <c r="T2" s="807"/>
+      <c r="U2" s="810" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="798"/>
-      <c r="W2" s="798"/>
-      <c r="X2" s="798"/>
-      <c r="Y2" s="798"/>
-      <c r="Z2" s="798"/>
-      <c r="AA2" s="799"/>
-      <c r="AB2" s="789" t="s">
+      <c r="V2" s="811"/>
+      <c r="W2" s="811"/>
+      <c r="X2" s="811"/>
+      <c r="Y2" s="811"/>
+      <c r="Z2" s="811"/>
+      <c r="AA2" s="812"/>
+      <c r="AB2" s="802" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="789"/>
-      <c r="AD2" s="789"/>
-      <c r="AE2" s="789"/>
-      <c r="AG2" s="789" t="s">
+      <c r="AC2" s="802"/>
+      <c r="AD2" s="802"/>
+      <c r="AE2" s="802"/>
+      <c r="AG2" s="802" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="797"/>
+      <c r="B3" s="798"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -47196,8 +47883,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="795"/>
-      <c r="T3" s="796"/>
+      <c r="S3" s="808"/>
+      <c r="T3" s="809"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -47231,7 +47918,7 @@
       <c r="AE3" s="779" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="789"/>
+      <c r="AG3" s="802"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -51079,10 +51766,10 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="802" t="s">
+      <c r="A64" s="791" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="803"/>
+      <c r="B64" s="792"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
@@ -51110,10 +51797,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="804" t="s">
+      <c r="S64" s="793" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="805"/>
+      <c r="T64" s="794"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -51209,56 +51896,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="795" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
-      <c r="J2" s="790" t="s">
+      <c r="B2" s="796"/>
+      <c r="C2" s="799" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="800"/>
+      <c r="E2" s="800"/>
+      <c r="F2" s="800"/>
+      <c r="G2" s="800"/>
+      <c r="H2" s="800"/>
+      <c r="I2" s="801"/>
+      <c r="J2" s="803" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="791"/>
-      <c r="L2" s="791"/>
-      <c r="M2" s="791"/>
-      <c r="N2" s="791"/>
-      <c r="O2" s="791"/>
-      <c r="P2" s="791"/>
-      <c r="Q2" s="792"/>
+      <c r="K2" s="804"/>
+      <c r="L2" s="804"/>
+      <c r="M2" s="804"/>
+      <c r="N2" s="804"/>
+      <c r="O2" s="804"/>
+      <c r="P2" s="804"/>
+      <c r="Q2" s="805"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="793" t="s">
+      <c r="S2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="794"/>
-      <c r="U2" s="797" t="s">
+      <c r="T2" s="807"/>
+      <c r="U2" s="810" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="798"/>
-      <c r="W2" s="798"/>
-      <c r="X2" s="798"/>
-      <c r="Y2" s="798"/>
-      <c r="Z2" s="798"/>
-      <c r="AA2" s="799"/>
-      <c r="AB2" s="789" t="s">
+      <c r="V2" s="811"/>
+      <c r="W2" s="811"/>
+      <c r="X2" s="811"/>
+      <c r="Y2" s="811"/>
+      <c r="Z2" s="811"/>
+      <c r="AA2" s="812"/>
+      <c r="AB2" s="802" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="789"/>
-      <c r="AD2" s="789"/>
-      <c r="AE2" s="789"/>
-      <c r="AG2" s="789" t="s">
+      <c r="AC2" s="802"/>
+      <c r="AD2" s="802"/>
+      <c r="AE2" s="802"/>
+      <c r="AG2" s="802" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="797"/>
+      <c r="B3" s="798"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -51305,8 +51992,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="795"/>
-      <c r="T3" s="796"/>
+      <c r="S3" s="808"/>
+      <c r="T3" s="809"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -51340,7 +52027,7 @@
       <c r="AE3" s="787" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="789"/>
+      <c r="AG3" s="802"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -55188,10 +55875,10 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="802" t="s">
+      <c r="A64" s="791" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="803"/>
+      <c r="B64" s="792"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
@@ -55219,10 +55906,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="804" t="s">
+      <c r="S64" s="793" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="805"/>
+      <c r="T64" s="794"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>

--- a/01 회원사사용료현황.xlsx
+++ b/01 회원사사용료현황.xlsx
@@ -6233,6 +6233,39 @@
     <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="3" fillId="14" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6270,39 +6303,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="12" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6739,56 +6739,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="795" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="796"/>
-      <c r="C2" s="799" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="800"/>
-      <c r="E2" s="800"/>
-      <c r="F2" s="800"/>
-      <c r="G2" s="800"/>
-      <c r="H2" s="800"/>
-      <c r="I2" s="801"/>
-      <c r="J2" s="803" t="s">
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
+      <c r="J2" s="790" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="804"/>
-      <c r="L2" s="804"/>
-      <c r="M2" s="804"/>
-      <c r="N2" s="804"/>
-      <c r="O2" s="804"/>
-      <c r="P2" s="804"/>
-      <c r="Q2" s="805"/>
+      <c r="K2" s="791"/>
+      <c r="L2" s="791"/>
+      <c r="M2" s="791"/>
+      <c r="N2" s="791"/>
+      <c r="O2" s="791"/>
+      <c r="P2" s="791"/>
+      <c r="Q2" s="792"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="806" t="s">
+      <c r="S2" s="793" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="807"/>
-      <c r="U2" s="810" t="s">
+      <c r="T2" s="794"/>
+      <c r="U2" s="797" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="811"/>
-      <c r="W2" s="811"/>
-      <c r="X2" s="811"/>
-      <c r="Y2" s="811"/>
-      <c r="Z2" s="811"/>
-      <c r="AA2" s="812"/>
-      <c r="AB2" s="802" t="s">
+      <c r="V2" s="798"/>
+      <c r="W2" s="798"/>
+      <c r="X2" s="798"/>
+      <c r="Y2" s="798"/>
+      <c r="Z2" s="798"/>
+      <c r="AA2" s="799"/>
+      <c r="AB2" s="789" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="802"/>
-      <c r="AD2" s="802"/>
-      <c r="AE2" s="802"/>
-      <c r="AG2" s="802" t="s">
+      <c r="AC2" s="789"/>
+      <c r="AD2" s="789"/>
+      <c r="AE2" s="789"/>
+      <c r="AG2" s="789" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="797"/>
-      <c r="B3" s="798"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -6835,8 +6835,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="808"/>
-      <c r="T3" s="809"/>
+      <c r="S3" s="795"/>
+      <c r="T3" s="796"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -6870,7 +6870,7 @@
       <c r="AE3" s="406" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="802"/>
+      <c r="AG3" s="789"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="613" t="s">
@@ -10661,21 +10661,21 @@
       <c r="AG62" s="86"/>
     </row>
     <row r="63" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A63" s="791" t="s">
+      <c r="A63" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B63" s="792"/>
+      <c r="B63" s="803"/>
       <c r="C63" s="580"/>
       <c r="D63" s="580"/>
       <c r="E63" s="581"/>
       <c r="F63" s="583">
         <v>41</v>
       </c>
-      <c r="G63" s="789">
+      <c r="G63" s="800">
         <f>SUM(F4:H62)</f>
         <v>10100000</v>
       </c>
-      <c r="H63" s="790"/>
+      <c r="H63" s="801"/>
       <c r="I63" s="553"/>
       <c r="J63" s="582">
         <f>SUM(J4:J62)</f>
@@ -10694,10 +10694,10 @@
       </c>
       <c r="P63" s="555"/>
       <c r="Q63" s="556"/>
-      <c r="S63" s="793" t="s">
+      <c r="S63" s="804" t="s">
         <v>377</v>
       </c>
-      <c r="T63" s="794"/>
+      <c r="T63" s="805"/>
       <c r="U63" s="628">
         <f>SUM(U4:U62)</f>
         <v>10</v>
@@ -10718,16 +10718,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:I2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="S2:T3"/>
     <mergeCell ref="U2:AA2"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="S63:T63"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -10746,7 +10746,7 @@
   <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10776,19 +10776,19 @@
       <c r="N1" s="507"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="795" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="796"/>
-      <c r="C2" s="799" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="800"/>
-      <c r="E2" s="800"/>
-      <c r="F2" s="800"/>
-      <c r="G2" s="800"/>
-      <c r="H2" s="800"/>
-      <c r="I2" s="801"/>
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
       <c r="J2" s="817"/>
       <c r="K2" s="818"/>
       <c r="L2" s="818"/>
@@ -10796,8 +10796,8 @@
       <c r="N2" s="819"/>
     </row>
     <row r="3" spans="1:15" ht="33.75" thickBot="1">
-      <c r="A3" s="797"/>
-      <c r="B3" s="798"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -12979,10 +12979,10 @@
       </c>
     </row>
     <row r="82" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A82" s="791" t="s">
+      <c r="A82" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B82" s="792"/>
+      <c r="B82" s="803"/>
       <c r="C82" s="580"/>
       <c r="D82" s="580"/>
       <c r="E82" s="581"/>
@@ -13078,15 +13078,15 @@
       <c r="H1" s="831"/>
       <c r="I1" s="831"/>
       <c r="J1" s="832"/>
-      <c r="K1" s="804" t="s">
+      <c r="K1" s="791" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="804"/>
-      <c r="M1" s="804"/>
-      <c r="N1" s="804"/>
-      <c r="O1" s="804"/>
-      <c r="P1" s="804"/>
-      <c r="Q1" s="804"/>
+      <c r="L1" s="791"/>
+      <c r="M1" s="791"/>
+      <c r="N1" s="791"/>
+      <c r="O1" s="791"/>
+      <c r="P1" s="791"/>
+      <c r="Q1" s="791"/>
       <c r="R1" s="821" t="s">
         <v>318</v>
       </c>
@@ -23201,56 +23201,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="795" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="796"/>
-      <c r="C2" s="799" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="800"/>
-      <c r="E2" s="800"/>
-      <c r="F2" s="800"/>
-      <c r="G2" s="800"/>
-      <c r="H2" s="800"/>
-      <c r="I2" s="801"/>
-      <c r="J2" s="803" t="s">
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
+      <c r="J2" s="790" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="804"/>
-      <c r="L2" s="804"/>
-      <c r="M2" s="804"/>
-      <c r="N2" s="804"/>
-      <c r="O2" s="804"/>
-      <c r="P2" s="804"/>
-      <c r="Q2" s="805"/>
+      <c r="K2" s="791"/>
+      <c r="L2" s="791"/>
+      <c r="M2" s="791"/>
+      <c r="N2" s="791"/>
+      <c r="O2" s="791"/>
+      <c r="P2" s="791"/>
+      <c r="Q2" s="792"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="806" t="s">
+      <c r="S2" s="793" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="807"/>
-      <c r="U2" s="810" t="s">
+      <c r="T2" s="794"/>
+      <c r="U2" s="797" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="811"/>
-      <c r="W2" s="811"/>
-      <c r="X2" s="811"/>
-      <c r="Y2" s="811"/>
-      <c r="Z2" s="811"/>
-      <c r="AA2" s="812"/>
-      <c r="AB2" s="802" t="s">
+      <c r="V2" s="798"/>
+      <c r="W2" s="798"/>
+      <c r="X2" s="798"/>
+      <c r="Y2" s="798"/>
+      <c r="Z2" s="798"/>
+      <c r="AA2" s="799"/>
+      <c r="AB2" s="789" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="802"/>
-      <c r="AD2" s="802"/>
-      <c r="AE2" s="802"/>
-      <c r="AG2" s="802" t="s">
+      <c r="AC2" s="789"/>
+      <c r="AD2" s="789"/>
+      <c r="AE2" s="789"/>
+      <c r="AG2" s="789" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="797"/>
-      <c r="B3" s="798"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -23297,8 +23297,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="808"/>
-      <c r="T3" s="809"/>
+      <c r="S3" s="795"/>
+      <c r="T3" s="796"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -23332,7 +23332,7 @@
       <c r="AE3" s="633" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="802"/>
+      <c r="AG3" s="789"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -27141,10 +27141,10 @@
       <c r="AG62" s="86"/>
     </row>
     <row r="63" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A63" s="791" t="s">
+      <c r="A63" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B63" s="792"/>
+      <c r="B63" s="803"/>
       <c r="C63" s="580"/>
       <c r="D63" s="580"/>
       <c r="E63" s="581"/>
@@ -27172,10 +27172,10 @@
       </c>
       <c r="P63" s="555"/>
       <c r="Q63" s="556"/>
-      <c r="S63" s="793" t="s">
+      <c r="S63" s="804" t="s">
         <v>377</v>
       </c>
-      <c r="T63" s="794"/>
+      <c r="T63" s="805"/>
       <c r="U63" s="628">
         <f>SUM(U4:U62)</f>
         <v>161</v>
@@ -27271,56 +27271,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="795" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="796"/>
-      <c r="C2" s="799" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="800"/>
-      <c r="E2" s="800"/>
-      <c r="F2" s="800"/>
-      <c r="G2" s="800"/>
-      <c r="H2" s="800"/>
-      <c r="I2" s="801"/>
-      <c r="J2" s="803" t="s">
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
+      <c r="J2" s="790" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="804"/>
-      <c r="L2" s="804"/>
-      <c r="M2" s="804"/>
-      <c r="N2" s="804"/>
-      <c r="O2" s="804"/>
-      <c r="P2" s="804"/>
-      <c r="Q2" s="805"/>
+      <c r="K2" s="791"/>
+      <c r="L2" s="791"/>
+      <c r="M2" s="791"/>
+      <c r="N2" s="791"/>
+      <c r="O2" s="791"/>
+      <c r="P2" s="791"/>
+      <c r="Q2" s="792"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="806" t="s">
+      <c r="S2" s="793" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="807"/>
-      <c r="U2" s="810" t="s">
+      <c r="T2" s="794"/>
+      <c r="U2" s="797" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="811"/>
-      <c r="W2" s="811"/>
-      <c r="X2" s="811"/>
-      <c r="Y2" s="811"/>
-      <c r="Z2" s="811"/>
-      <c r="AA2" s="812"/>
-      <c r="AB2" s="802" t="s">
+      <c r="V2" s="798"/>
+      <c r="W2" s="798"/>
+      <c r="X2" s="798"/>
+      <c r="Y2" s="798"/>
+      <c r="Z2" s="798"/>
+      <c r="AA2" s="799"/>
+      <c r="AB2" s="789" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="802"/>
-      <c r="AD2" s="802"/>
-      <c r="AE2" s="802"/>
-      <c r="AG2" s="802" t="s">
+      <c r="AC2" s="789"/>
+      <c r="AD2" s="789"/>
+      <c r="AE2" s="789"/>
+      <c r="AG2" s="789" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="797"/>
-      <c r="B3" s="798"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -27367,8 +27367,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="808"/>
-      <c r="T3" s="809"/>
+      <c r="S3" s="795"/>
+      <c r="T3" s="796"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -27402,7 +27402,7 @@
       <c r="AE3" s="697" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="802"/>
+      <c r="AG3" s="789"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -31212,10 +31212,10 @@
       <c r="AG62" s="86"/>
     </row>
     <row r="63" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A63" s="791" t="s">
+      <c r="A63" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B63" s="792"/>
+      <c r="B63" s="803"/>
       <c r="C63" s="580"/>
       <c r="D63" s="580"/>
       <c r="E63" s="581"/>
@@ -31242,10 +31242,10 @@
       </c>
       <c r="P63" s="555"/>
       <c r="Q63" s="556"/>
-      <c r="S63" s="793" t="s">
+      <c r="S63" s="804" t="s">
         <v>377</v>
       </c>
-      <c r="T63" s="794"/>
+      <c r="T63" s="805"/>
       <c r="U63" s="628">
         <f>SUM(U4:U62)</f>
         <v>157</v>
@@ -31341,56 +31341,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="795" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="796"/>
-      <c r="C2" s="799" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="800"/>
-      <c r="E2" s="800"/>
-      <c r="F2" s="800"/>
-      <c r="G2" s="800"/>
-      <c r="H2" s="800"/>
-      <c r="I2" s="801"/>
-      <c r="J2" s="803" t="s">
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
+      <c r="J2" s="790" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="804"/>
-      <c r="L2" s="804"/>
-      <c r="M2" s="804"/>
-      <c r="N2" s="804"/>
-      <c r="O2" s="804"/>
-      <c r="P2" s="804"/>
-      <c r="Q2" s="805"/>
+      <c r="K2" s="791"/>
+      <c r="L2" s="791"/>
+      <c r="M2" s="791"/>
+      <c r="N2" s="791"/>
+      <c r="O2" s="791"/>
+      <c r="P2" s="791"/>
+      <c r="Q2" s="792"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="806" t="s">
+      <c r="S2" s="793" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="807"/>
-      <c r="U2" s="810" t="s">
+      <c r="T2" s="794"/>
+      <c r="U2" s="797" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="811"/>
-      <c r="W2" s="811"/>
-      <c r="X2" s="811"/>
-      <c r="Y2" s="811"/>
-      <c r="Z2" s="811"/>
-      <c r="AA2" s="812"/>
-      <c r="AB2" s="802" t="s">
+      <c r="V2" s="798"/>
+      <c r="W2" s="798"/>
+      <c r="X2" s="798"/>
+      <c r="Y2" s="798"/>
+      <c r="Z2" s="798"/>
+      <c r="AA2" s="799"/>
+      <c r="AB2" s="789" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="802"/>
-      <c r="AD2" s="802"/>
-      <c r="AE2" s="802"/>
-      <c r="AG2" s="802" t="s">
+      <c r="AC2" s="789"/>
+      <c r="AD2" s="789"/>
+      <c r="AE2" s="789"/>
+      <c r="AG2" s="789" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="797"/>
-      <c r="B3" s="798"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -31437,8 +31437,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="808"/>
-      <c r="T3" s="809"/>
+      <c r="S3" s="795"/>
+      <c r="T3" s="796"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -31472,7 +31472,7 @@
       <c r="AE3" s="758" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="802"/>
+      <c r="AG3" s="789"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -35328,10 +35328,10 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="791" t="s">
+      <c r="A64" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="792"/>
+      <c r="B64" s="803"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
@@ -35359,10 +35359,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="793" t="s">
+      <c r="S64" s="804" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="794"/>
+      <c r="T64" s="805"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -35458,56 +35458,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="795" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="796"/>
-      <c r="C2" s="799" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="800"/>
-      <c r="E2" s="800"/>
-      <c r="F2" s="800"/>
-      <c r="G2" s="800"/>
-      <c r="H2" s="800"/>
-      <c r="I2" s="801"/>
-      <c r="J2" s="803" t="s">
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
+      <c r="J2" s="790" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="804"/>
-      <c r="L2" s="804"/>
-      <c r="M2" s="804"/>
-      <c r="N2" s="804"/>
-      <c r="O2" s="804"/>
-      <c r="P2" s="804"/>
-      <c r="Q2" s="805"/>
+      <c r="K2" s="791"/>
+      <c r="L2" s="791"/>
+      <c r="M2" s="791"/>
+      <c r="N2" s="791"/>
+      <c r="O2" s="791"/>
+      <c r="P2" s="791"/>
+      <c r="Q2" s="792"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="806" t="s">
+      <c r="S2" s="793" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="807"/>
-      <c r="U2" s="810" t="s">
+      <c r="T2" s="794"/>
+      <c r="U2" s="797" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="811"/>
-      <c r="W2" s="811"/>
-      <c r="X2" s="811"/>
-      <c r="Y2" s="811"/>
-      <c r="Z2" s="811"/>
-      <c r="AA2" s="812"/>
-      <c r="AB2" s="802" t="s">
+      <c r="V2" s="798"/>
+      <c r="W2" s="798"/>
+      <c r="X2" s="798"/>
+      <c r="Y2" s="798"/>
+      <c r="Z2" s="798"/>
+      <c r="AA2" s="799"/>
+      <c r="AB2" s="789" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="802"/>
-      <c r="AD2" s="802"/>
-      <c r="AE2" s="802"/>
-      <c r="AG2" s="802" t="s">
+      <c r="AC2" s="789"/>
+      <c r="AD2" s="789"/>
+      <c r="AE2" s="789"/>
+      <c r="AG2" s="789" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="797"/>
-      <c r="B3" s="798"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -35554,8 +35554,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="808"/>
-      <c r="T3" s="809"/>
+      <c r="S3" s="795"/>
+      <c r="T3" s="796"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -35589,7 +35589,7 @@
       <c r="AE3" s="771" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="802"/>
+      <c r="AG3" s="789"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -39441,10 +39441,10 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="791" t="s">
+      <c r="A64" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="792"/>
+      <c r="B64" s="803"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
@@ -39472,10 +39472,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="793" t="s">
+      <c r="S64" s="804" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="794"/>
+      <c r="T64" s="805"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -39571,56 +39571,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="795" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="796"/>
-      <c r="C2" s="799" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="800"/>
-      <c r="E2" s="800"/>
-      <c r="F2" s="800"/>
-      <c r="G2" s="800"/>
-      <c r="H2" s="800"/>
-      <c r="I2" s="801"/>
-      <c r="J2" s="803" t="s">
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
+      <c r="J2" s="790" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="804"/>
-      <c r="L2" s="804"/>
-      <c r="M2" s="804"/>
-      <c r="N2" s="804"/>
-      <c r="O2" s="804"/>
-      <c r="P2" s="804"/>
-      <c r="Q2" s="805"/>
+      <c r="K2" s="791"/>
+      <c r="L2" s="791"/>
+      <c r="M2" s="791"/>
+      <c r="N2" s="791"/>
+      <c r="O2" s="791"/>
+      <c r="P2" s="791"/>
+      <c r="Q2" s="792"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="806" t="s">
+      <c r="S2" s="793" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="807"/>
-      <c r="U2" s="810" t="s">
+      <c r="T2" s="794"/>
+      <c r="U2" s="797" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="811"/>
-      <c r="W2" s="811"/>
-      <c r="X2" s="811"/>
-      <c r="Y2" s="811"/>
-      <c r="Z2" s="811"/>
-      <c r="AA2" s="812"/>
-      <c r="AB2" s="802" t="s">
+      <c r="V2" s="798"/>
+      <c r="W2" s="798"/>
+      <c r="X2" s="798"/>
+      <c r="Y2" s="798"/>
+      <c r="Z2" s="798"/>
+      <c r="AA2" s="799"/>
+      <c r="AB2" s="789" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="802"/>
-      <c r="AD2" s="802"/>
-      <c r="AE2" s="802"/>
-      <c r="AG2" s="802" t="s">
+      <c r="AC2" s="789"/>
+      <c r="AD2" s="789"/>
+      <c r="AE2" s="789"/>
+      <c r="AG2" s="789" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="797"/>
-      <c r="B3" s="798"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -39667,8 +39667,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="808"/>
-      <c r="T3" s="809"/>
+      <c r="S3" s="795"/>
+      <c r="T3" s="796"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -39702,7 +39702,7 @@
       <c r="AE3" s="770" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="802"/>
+      <c r="AG3" s="789"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -43550,10 +43550,10 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="791" t="s">
+      <c r="A64" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="792"/>
+      <c r="B64" s="803"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
@@ -43580,10 +43580,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="793" t="s">
+      <c r="S64" s="804" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="794"/>
+      <c r="T64" s="805"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -43679,56 +43679,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="795" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="796"/>
-      <c r="C2" s="799" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="800"/>
-      <c r="E2" s="800"/>
-      <c r="F2" s="800"/>
-      <c r="G2" s="800"/>
-      <c r="H2" s="800"/>
-      <c r="I2" s="801"/>
-      <c r="J2" s="803" t="s">
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
+      <c r="J2" s="790" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="804"/>
-      <c r="L2" s="804"/>
-      <c r="M2" s="804"/>
-      <c r="N2" s="804"/>
-      <c r="O2" s="804"/>
-      <c r="P2" s="804"/>
-      <c r="Q2" s="805"/>
+      <c r="K2" s="791"/>
+      <c r="L2" s="791"/>
+      <c r="M2" s="791"/>
+      <c r="N2" s="791"/>
+      <c r="O2" s="791"/>
+      <c r="P2" s="791"/>
+      <c r="Q2" s="792"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="806" t="s">
+      <c r="S2" s="793" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="807"/>
-      <c r="U2" s="810" t="s">
+      <c r="T2" s="794"/>
+      <c r="U2" s="797" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="811"/>
-      <c r="W2" s="811"/>
-      <c r="X2" s="811"/>
-      <c r="Y2" s="811"/>
-      <c r="Z2" s="811"/>
-      <c r="AA2" s="812"/>
-      <c r="AB2" s="802" t="s">
+      <c r="V2" s="798"/>
+      <c r="W2" s="798"/>
+      <c r="X2" s="798"/>
+      <c r="Y2" s="798"/>
+      <c r="Z2" s="798"/>
+      <c r="AA2" s="799"/>
+      <c r="AB2" s="789" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="802"/>
-      <c r="AD2" s="802"/>
-      <c r="AE2" s="802"/>
-      <c r="AG2" s="802" t="s">
+      <c r="AC2" s="789"/>
+      <c r="AD2" s="789"/>
+      <c r="AE2" s="789"/>
+      <c r="AG2" s="789" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="797"/>
-      <c r="B3" s="798"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -43775,8 +43775,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="808"/>
-      <c r="T3" s="809"/>
+      <c r="S3" s="795"/>
+      <c r="T3" s="796"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -43810,7 +43810,7 @@
       <c r="AE3" s="778" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="802"/>
+      <c r="AG3" s="789"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -47658,10 +47658,10 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="791" t="s">
+      <c r="A64" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="792"/>
+      <c r="B64" s="803"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
@@ -47688,10 +47688,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="793" t="s">
+      <c r="S64" s="804" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="794"/>
+      <c r="T64" s="805"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -47787,56 +47787,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="795" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="796"/>
-      <c r="C2" s="799" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="800"/>
-      <c r="E2" s="800"/>
-      <c r="F2" s="800"/>
-      <c r="G2" s="800"/>
-      <c r="H2" s="800"/>
-      <c r="I2" s="801"/>
-      <c r="J2" s="803" t="s">
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
+      <c r="J2" s="790" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="804"/>
-      <c r="L2" s="804"/>
-      <c r="M2" s="804"/>
-      <c r="N2" s="804"/>
-      <c r="O2" s="804"/>
-      <c r="P2" s="804"/>
-      <c r="Q2" s="805"/>
+      <c r="K2" s="791"/>
+      <c r="L2" s="791"/>
+      <c r="M2" s="791"/>
+      <c r="N2" s="791"/>
+      <c r="O2" s="791"/>
+      <c r="P2" s="791"/>
+      <c r="Q2" s="792"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="806" t="s">
+      <c r="S2" s="793" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="807"/>
-      <c r="U2" s="810" t="s">
+      <c r="T2" s="794"/>
+      <c r="U2" s="797" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="811"/>
-      <c r="W2" s="811"/>
-      <c r="X2" s="811"/>
-      <c r="Y2" s="811"/>
-      <c r="Z2" s="811"/>
-      <c r="AA2" s="812"/>
-      <c r="AB2" s="802" t="s">
+      <c r="V2" s="798"/>
+      <c r="W2" s="798"/>
+      <c r="X2" s="798"/>
+      <c r="Y2" s="798"/>
+      <c r="Z2" s="798"/>
+      <c r="AA2" s="799"/>
+      <c r="AB2" s="789" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="802"/>
-      <c r="AD2" s="802"/>
-      <c r="AE2" s="802"/>
-      <c r="AG2" s="802" t="s">
+      <c r="AC2" s="789"/>
+      <c r="AD2" s="789"/>
+      <c r="AE2" s="789"/>
+      <c r="AG2" s="789" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="797"/>
-      <c r="B3" s="798"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -47883,8 +47883,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="808"/>
-      <c r="T3" s="809"/>
+      <c r="S3" s="795"/>
+      <c r="T3" s="796"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -47918,7 +47918,7 @@
       <c r="AE3" s="779" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="802"/>
+      <c r="AG3" s="789"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -51766,10 +51766,10 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="791" t="s">
+      <c r="A64" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="792"/>
+      <c r="B64" s="803"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
@@ -51797,10 +51797,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="793" t="s">
+      <c r="S64" s="804" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="794"/>
+      <c r="T64" s="805"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -51896,56 +51896,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="795" t="s">
+      <c r="A2" s="806" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="796"/>
-      <c r="C2" s="799" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="800"/>
-      <c r="E2" s="800"/>
-      <c r="F2" s="800"/>
-      <c r="G2" s="800"/>
-      <c r="H2" s="800"/>
-      <c r="I2" s="801"/>
-      <c r="J2" s="803" t="s">
+      <c r="B2" s="807"/>
+      <c r="C2" s="810" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="811"/>
+      <c r="E2" s="811"/>
+      <c r="F2" s="811"/>
+      <c r="G2" s="811"/>
+      <c r="H2" s="811"/>
+      <c r="I2" s="812"/>
+      <c r="J2" s="790" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="804"/>
-      <c r="L2" s="804"/>
-      <c r="M2" s="804"/>
-      <c r="N2" s="804"/>
-      <c r="O2" s="804"/>
-      <c r="P2" s="804"/>
-      <c r="Q2" s="805"/>
+      <c r="K2" s="791"/>
+      <c r="L2" s="791"/>
+      <c r="M2" s="791"/>
+      <c r="N2" s="791"/>
+      <c r="O2" s="791"/>
+      <c r="P2" s="791"/>
+      <c r="Q2" s="792"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="806" t="s">
+      <c r="S2" s="793" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="807"/>
-      <c r="U2" s="810" t="s">
+      <c r="T2" s="794"/>
+      <c r="U2" s="797" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="811"/>
-      <c r="W2" s="811"/>
-      <c r="X2" s="811"/>
-      <c r="Y2" s="811"/>
-      <c r="Z2" s="811"/>
-      <c r="AA2" s="812"/>
-      <c r="AB2" s="802" t="s">
+      <c r="V2" s="798"/>
+      <c r="W2" s="798"/>
+      <c r="X2" s="798"/>
+      <c r="Y2" s="798"/>
+      <c r="Z2" s="798"/>
+      <c r="AA2" s="799"/>
+      <c r="AB2" s="789" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="802"/>
-      <c r="AD2" s="802"/>
-      <c r="AE2" s="802"/>
-      <c r="AG2" s="802" t="s">
+      <c r="AC2" s="789"/>
+      <c r="AD2" s="789"/>
+      <c r="AE2" s="789"/>
+      <c r="AG2" s="789" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="797"/>
-      <c r="B3" s="798"/>
+      <c r="A3" s="808"/>
+      <c r="B3" s="809"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -51992,8 +51992,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="808"/>
-      <c r="T3" s="809"/>
+      <c r="S3" s="795"/>
+      <c r="T3" s="796"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -52027,7 +52027,7 @@
       <c r="AE3" s="787" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="802"/>
+      <c r="AG3" s="789"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -55875,10 +55875,10 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="791" t="s">
+      <c r="A64" s="802" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="792"/>
+      <c r="B64" s="803"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
@@ -55906,10 +55906,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="793" t="s">
+      <c r="S64" s="804" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="794"/>
+      <c r="T64" s="805"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>

--- a/01 회원사사용료현황.xlsx
+++ b/01 회원사사용료현황.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="보고용" sheetId="24" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="보고용 (5월)" sheetId="29" r:id="rId6"/>
     <sheet name="보고용 (6월)" sheetId="31" r:id="rId7"/>
     <sheet name="보고용 (7월)" sheetId="32" r:id="rId8"/>
-    <sheet name="보고용 (8월)" sheetId="33" r:id="rId9"/>
+    <sheet name="보고용 (12월)" sheetId="33" r:id="rId9"/>
     <sheet name="Sheet1" sheetId="26" r:id="rId10"/>
     <sheet name="12월" sheetId="14" r:id="rId11"/>
     <sheet name="회원사_전자세금계산서" sheetId="6" r:id="rId12"/>
@@ -702,7 +702,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3907" uniqueCount="447">
   <si>
     <t>조합</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2643,11 +2643,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2018년 8월 조합 사용 현황</t>
+    <t xml:space="preserve"> └ 계산서 미리발행 후,  사용료는 월별((50,000*125)*1.1=6,875,000)로 나눠서 받는다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11월</t>
+    <t>1월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018년 12월 조합 사용 현황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">매달 20일(1년계약 8개사 제외) </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2901,15 +2913,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="2"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -2929,6 +2932,15 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="16">
@@ -3865,7 +3877,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="843">
+  <cellXfs count="851">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6230,9 +6242,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6393,6 +6402,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6739,56 +6775,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="805" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
-      <c r="J2" s="790" t="s">
+      <c r="B2" s="806"/>
+      <c r="C2" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="810"/>
+      <c r="E2" s="810"/>
+      <c r="F2" s="810"/>
+      <c r="G2" s="810"/>
+      <c r="H2" s="810"/>
+      <c r="I2" s="811"/>
+      <c r="J2" s="789" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="791"/>
-      <c r="L2" s="791"/>
-      <c r="M2" s="791"/>
-      <c r="N2" s="791"/>
-      <c r="O2" s="791"/>
-      <c r="P2" s="791"/>
-      <c r="Q2" s="792"/>
+      <c r="K2" s="790"/>
+      <c r="L2" s="790"/>
+      <c r="M2" s="790"/>
+      <c r="N2" s="790"/>
+      <c r="O2" s="790"/>
+      <c r="P2" s="790"/>
+      <c r="Q2" s="791"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="793" t="s">
+      <c r="S2" s="792" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="794"/>
-      <c r="U2" s="797" t="s">
+      <c r="T2" s="793"/>
+      <c r="U2" s="796" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="798"/>
-      <c r="W2" s="798"/>
-      <c r="X2" s="798"/>
-      <c r="Y2" s="798"/>
-      <c r="Z2" s="798"/>
-      <c r="AA2" s="799"/>
-      <c r="AB2" s="789" t="s">
+      <c r="V2" s="797"/>
+      <c r="W2" s="797"/>
+      <c r="X2" s="797"/>
+      <c r="Y2" s="797"/>
+      <c r="Z2" s="797"/>
+      <c r="AA2" s="798"/>
+      <c r="AB2" s="788" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="789"/>
-      <c r="AD2" s="789"/>
-      <c r="AE2" s="789"/>
-      <c r="AG2" s="789" t="s">
+      <c r="AC2" s="788"/>
+      <c r="AD2" s="788"/>
+      <c r="AE2" s="788"/>
+      <c r="AG2" s="788" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="807"/>
+      <c r="B3" s="808"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -6835,8 +6871,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="795"/>
-      <c r="T3" s="796"/>
+      <c r="S3" s="794"/>
+      <c r="T3" s="795"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -6870,7 +6906,7 @@
       <c r="AE3" s="406" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="789"/>
+      <c r="AG3" s="788"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="613" t="s">
@@ -10661,21 +10697,21 @@
       <c r="AG62" s="86"/>
     </row>
     <row r="63" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A63" s="802" t="s">
+      <c r="A63" s="801" t="s">
         <v>377</v>
       </c>
-      <c r="B63" s="803"/>
+      <c r="B63" s="802"/>
       <c r="C63" s="580"/>
       <c r="D63" s="580"/>
       <c r="E63" s="581"/>
       <c r="F63" s="583">
         <v>41</v>
       </c>
-      <c r="G63" s="800">
+      <c r="G63" s="799">
         <f>SUM(F4:H62)</f>
         <v>10100000</v>
       </c>
-      <c r="H63" s="801"/>
+      <c r="H63" s="800"/>
       <c r="I63" s="553"/>
       <c r="J63" s="582">
         <f>SUM(J4:J62)</f>
@@ -10694,10 +10730,10 @@
       </c>
       <c r="P63" s="555"/>
       <c r="Q63" s="556"/>
-      <c r="S63" s="804" t="s">
+      <c r="S63" s="803" t="s">
         <v>377</v>
       </c>
-      <c r="T63" s="805"/>
+      <c r="T63" s="804"/>
       <c r="U63" s="628">
         <f>SUM(U4:U62)</f>
         <v>10</v>
@@ -10745,7 +10781,7 @@
   </sheetPr>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -10768,36 +10804,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" thickBot="1">
-      <c r="A1" s="816" t="s">
+      <c r="A1" s="815" t="s">
         <v>443</v>
       </c>
-      <c r="B1" s="816"/>
+      <c r="B1" s="815"/>
       <c r="G1" s="381"/>
       <c r="N1" s="507"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="805" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
-      <c r="J2" s="817"/>
-      <c r="K2" s="818"/>
-      <c r="L2" s="818"/>
-      <c r="M2" s="818"/>
-      <c r="N2" s="819"/>
+      <c r="B2" s="806"/>
+      <c r="C2" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="810"/>
+      <c r="E2" s="810"/>
+      <c r="F2" s="810"/>
+      <c r="G2" s="810"/>
+      <c r="H2" s="810"/>
+      <c r="I2" s="811"/>
+      <c r="J2" s="816"/>
+      <c r="K2" s="817"/>
+      <c r="L2" s="817"/>
+      <c r="M2" s="817"/>
+      <c r="N2" s="818"/>
     </row>
     <row r="3" spans="1:15" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="807"/>
+      <c r="B3" s="808"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -10870,7 +10906,7 @@
         <f>SUM(L4:M4)</f>
         <v>40000</v>
       </c>
-      <c r="O4" s="788">
+      <c r="O4" s="842">
         <f>J4*N4*3</f>
         <v>8160000</v>
       </c>
@@ -11310,7 +11346,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="656"/>
+      <c r="G23" s="843">
+        <v>100000</v>
+      </c>
       <c r="H23" s="385"/>
       <c r="I23" s="487"/>
       <c r="J23" s="217"/>
@@ -11367,7 +11405,7 @@
         <v>300000</v>
       </c>
       <c r="J25" s="430">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K25" s="60"/>
       <c r="L25" s="626">
@@ -11699,8 +11737,8 @@
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="G36" s="663">
-        <v>150000</v>
+      <c r="G36" s="844">
+        <v>100000</v>
       </c>
       <c r="H36" s="429"/>
       <c r="I36" s="489"/>
@@ -11733,7 +11771,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="659"/>
+      <c r="G37" s="845">
+        <v>100000</v>
+      </c>
       <c r="H37" s="382"/>
       <c r="I37" s="649"/>
       <c r="J37" s="247"/>
@@ -12979,23 +13019,23 @@
       </c>
     </row>
     <row r="82" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A82" s="802" t="s">
+      <c r="A82" s="801" t="s">
         <v>377</v>
       </c>
-      <c r="B82" s="803"/>
+      <c r="B82" s="802"/>
       <c r="C82" s="580"/>
       <c r="D82" s="580"/>
       <c r="E82" s="581"/>
-      <c r="F82" s="813">
+      <c r="F82" s="812">
         <f>SUM(F4:H81)</f>
-        <v>10300000</v>
-      </c>
-      <c r="G82" s="814"/>
-      <c r="H82" s="815"/>
+        <v>10450000</v>
+      </c>
+      <c r="G82" s="813"/>
+      <c r="H82" s="814"/>
       <c r="I82" s="553"/>
       <c r="J82" s="582">
         <f>SUM(J4:J81)</f>
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K82" s="554"/>
       <c r="L82" s="552"/>
@@ -13029,7 +13069,7 @@
       <selection activeCell="I2" sqref="I1:I1048576"/>
       <selection pane="topRight" activeCell="I2" sqref="I1:I1048576"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I1:I1048576"/>
-      <selection pane="bottomRight" sqref="A1:C2"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13064,51 +13104,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="824" t="s">
+      <c r="A1" s="823" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="825"/>
-      <c r="C1" s="826"/>
-      <c r="D1" s="830" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="831"/>
-      <c r="F1" s="831"/>
-      <c r="G1" s="831"/>
-      <c r="H1" s="831"/>
-      <c r="I1" s="831"/>
-      <c r="J1" s="832"/>
-      <c r="K1" s="791" t="s">
+      <c r="B1" s="824"/>
+      <c r="C1" s="825"/>
+      <c r="D1" s="829" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="830"/>
+      <c r="F1" s="830"/>
+      <c r="G1" s="830"/>
+      <c r="H1" s="830"/>
+      <c r="I1" s="830"/>
+      <c r="J1" s="831"/>
+      <c r="K1" s="790" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="791"/>
-      <c r="M1" s="791"/>
-      <c r="N1" s="791"/>
-      <c r="O1" s="791"/>
-      <c r="P1" s="791"/>
-      <c r="Q1" s="791"/>
-      <c r="R1" s="821" t="s">
+      <c r="L1" s="790"/>
+      <c r="M1" s="790"/>
+      <c r="N1" s="790"/>
+      <c r="O1" s="790"/>
+      <c r="P1" s="790"/>
+      <c r="Q1" s="790"/>
+      <c r="R1" s="820" t="s">
         <v>318</v>
       </c>
-      <c r="S1" s="822"/>
-      <c r="T1" s="822"/>
-      <c r="U1" s="822"/>
-      <c r="V1" s="822"/>
-      <c r="W1" s="823"/>
-      <c r="X1" s="833" t="s">
+      <c r="S1" s="821"/>
+      <c r="T1" s="821"/>
+      <c r="U1" s="821"/>
+      <c r="V1" s="821"/>
+      <c r="W1" s="822"/>
+      <c r="X1" s="832" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="833"/>
-      <c r="Z1" s="833"/>
-      <c r="AA1" s="833"/>
-      <c r="AC1" s="820" t="s">
+      <c r="Y1" s="832"/>
+      <c r="Z1" s="832"/>
+      <c r="AA1" s="832"/>
+      <c r="AC1" s="819" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="33.75" thickBot="1">
-      <c r="A2" s="827"/>
-      <c r="B2" s="828"/>
-      <c r="C2" s="829"/>
+      <c r="A2" s="826"/>
+      <c r="B2" s="827"/>
+      <c r="C2" s="828"/>
       <c r="D2" s="271" t="s">
         <v>46</v>
       </c>
@@ -13181,7 +13221,7 @@
       <c r="AA2" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" s="820"/>
+      <c r="AC2" s="819"/>
     </row>
     <row r="3" spans="1:31" s="11" customFormat="1" ht="17.25" thickBot="1">
       <c r="A3" s="142" t="s">
@@ -13943,7 +13983,7 @@
         <v>41263</v>
       </c>
       <c r="AC14" s="86" t="s">
-        <v>51</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="17.25" thickBot="1">
@@ -19119,51 +19159,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="820" t="s">
+      <c r="A1" s="819" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="820"/>
-      <c r="C1" s="820"/>
-      <c r="D1" s="834" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="834"/>
-      <c r="F1" s="834"/>
-      <c r="G1" s="834"/>
-      <c r="H1" s="834"/>
-      <c r="I1" s="834"/>
-      <c r="J1" s="834"/>
-      <c r="K1" s="835" t="s">
+      <c r="B1" s="819"/>
+      <c r="C1" s="819"/>
+      <c r="D1" s="833" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="833"/>
+      <c r="F1" s="833"/>
+      <c r="G1" s="833"/>
+      <c r="H1" s="833"/>
+      <c r="I1" s="833"/>
+      <c r="J1" s="833"/>
+      <c r="K1" s="834" t="s">
         <v>156</v>
       </c>
-      <c r="L1" s="835"/>
-      <c r="M1" s="835"/>
-      <c r="N1" s="835"/>
-      <c r="O1" s="835"/>
-      <c r="P1" s="835"/>
-      <c r="Q1" s="835"/>
-      <c r="R1" s="836" t="s">
+      <c r="L1" s="834"/>
+      <c r="M1" s="834"/>
+      <c r="N1" s="834"/>
+      <c r="O1" s="834"/>
+      <c r="P1" s="834"/>
+      <c r="Q1" s="834"/>
+      <c r="R1" s="835" t="s">
         <v>157</v>
       </c>
-      <c r="S1" s="836"/>
-      <c r="T1" s="836"/>
-      <c r="U1" s="836"/>
-      <c r="V1" s="836"/>
-      <c r="W1" s="836"/>
-      <c r="X1" s="833" t="s">
+      <c r="S1" s="835"/>
+      <c r="T1" s="835"/>
+      <c r="U1" s="835"/>
+      <c r="V1" s="835"/>
+      <c r="W1" s="835"/>
+      <c r="X1" s="832" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="833"/>
-      <c r="Z1" s="833"/>
-      <c r="AA1" s="833"/>
-      <c r="AC1" s="820" t="s">
+      <c r="Y1" s="832"/>
+      <c r="Z1" s="832"/>
+      <c r="AA1" s="832"/>
+      <c r="AC1" s="819" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="33">
-      <c r="A2" s="820"/>
-      <c r="B2" s="820"/>
-      <c r="C2" s="820"/>
+      <c r="A2" s="819"/>
+      <c r="B2" s="819"/>
+      <c r="C2" s="819"/>
       <c r="D2" s="310" t="s">
         <v>46</v>
       </c>
@@ -19236,7 +19276,7 @@
       <c r="AA2" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" s="820"/>
+      <c r="AC2" s="819"/>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="72" t="s">
@@ -22603,16 +22643,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C1" s="837" t="s">
+      <c r="C1" s="836" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="838"/>
-      <c r="E1" s="839"/>
+      <c r="D1" s="837"/>
+      <c r="E1" s="838"/>
     </row>
     <row r="2" spans="1:5" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="C2" s="840"/>
-      <c r="D2" s="841"/>
-      <c r="E2" s="842"/>
+      <c r="C2" s="839"/>
+      <c r="D2" s="840"/>
+      <c r="E2" s="841"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B3" s="2" t="s">
@@ -23201,56 +23241,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="805" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
-      <c r="J2" s="790" t="s">
+      <c r="B2" s="806"/>
+      <c r="C2" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="810"/>
+      <c r="E2" s="810"/>
+      <c r="F2" s="810"/>
+      <c r="G2" s="810"/>
+      <c r="H2" s="810"/>
+      <c r="I2" s="811"/>
+      <c r="J2" s="789" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="791"/>
-      <c r="L2" s="791"/>
-      <c r="M2" s="791"/>
-      <c r="N2" s="791"/>
-      <c r="O2" s="791"/>
-      <c r="P2" s="791"/>
-      <c r="Q2" s="792"/>
+      <c r="K2" s="790"/>
+      <c r="L2" s="790"/>
+      <c r="M2" s="790"/>
+      <c r="N2" s="790"/>
+      <c r="O2" s="790"/>
+      <c r="P2" s="790"/>
+      <c r="Q2" s="791"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="793" t="s">
+      <c r="S2" s="792" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="794"/>
-      <c r="U2" s="797" t="s">
+      <c r="T2" s="793"/>
+      <c r="U2" s="796" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="798"/>
-      <c r="W2" s="798"/>
-      <c r="X2" s="798"/>
-      <c r="Y2" s="798"/>
-      <c r="Z2" s="798"/>
-      <c r="AA2" s="799"/>
-      <c r="AB2" s="789" t="s">
+      <c r="V2" s="797"/>
+      <c r="W2" s="797"/>
+      <c r="X2" s="797"/>
+      <c r="Y2" s="797"/>
+      <c r="Z2" s="797"/>
+      <c r="AA2" s="798"/>
+      <c r="AB2" s="788" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="789"/>
-      <c r="AD2" s="789"/>
-      <c r="AE2" s="789"/>
-      <c r="AG2" s="789" t="s">
+      <c r="AC2" s="788"/>
+      <c r="AD2" s="788"/>
+      <c r="AE2" s="788"/>
+      <c r="AG2" s="788" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="807"/>
+      <c r="B3" s="808"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -23297,8 +23337,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="795"/>
-      <c r="T3" s="796"/>
+      <c r="S3" s="794"/>
+      <c r="T3" s="795"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -23332,7 +23372,7 @@
       <c r="AE3" s="633" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="789"/>
+      <c r="AG3" s="788"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -27141,19 +27181,19 @@
       <c r="AG62" s="86"/>
     </row>
     <row r="63" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A63" s="802" t="s">
+      <c r="A63" s="801" t="s">
         <v>377</v>
       </c>
-      <c r="B63" s="803"/>
+      <c r="B63" s="802"/>
       <c r="C63" s="580"/>
       <c r="D63" s="580"/>
       <c r="E63" s="581"/>
-      <c r="F63" s="813">
+      <c r="F63" s="812">
         <f>SUM(F4:H62)</f>
         <v>10200000</v>
       </c>
-      <c r="G63" s="814"/>
-      <c r="H63" s="815"/>
+      <c r="G63" s="813"/>
+      <c r="H63" s="814"/>
       <c r="I63" s="690"/>
       <c r="J63" s="696">
         <f>SUM(J4:J62)</f>
@@ -27172,10 +27212,10 @@
       </c>
       <c r="P63" s="555"/>
       <c r="Q63" s="556"/>
-      <c r="S63" s="804" t="s">
+      <c r="S63" s="803" t="s">
         <v>377</v>
       </c>
-      <c r="T63" s="805"/>
+      <c r="T63" s="804"/>
       <c r="U63" s="628">
         <f>SUM(U4:U62)</f>
         <v>161</v>
@@ -27271,56 +27311,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="805" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
-      <c r="J2" s="790" t="s">
+      <c r="B2" s="806"/>
+      <c r="C2" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="810"/>
+      <c r="E2" s="810"/>
+      <c r="F2" s="810"/>
+      <c r="G2" s="810"/>
+      <c r="H2" s="810"/>
+      <c r="I2" s="811"/>
+      <c r="J2" s="789" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="791"/>
-      <c r="L2" s="791"/>
-      <c r="M2" s="791"/>
-      <c r="N2" s="791"/>
-      <c r="O2" s="791"/>
-      <c r="P2" s="791"/>
-      <c r="Q2" s="792"/>
+      <c r="K2" s="790"/>
+      <c r="L2" s="790"/>
+      <c r="M2" s="790"/>
+      <c r="N2" s="790"/>
+      <c r="O2" s="790"/>
+      <c r="P2" s="790"/>
+      <c r="Q2" s="791"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="793" t="s">
+      <c r="S2" s="792" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="794"/>
-      <c r="U2" s="797" t="s">
+      <c r="T2" s="793"/>
+      <c r="U2" s="796" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="798"/>
-      <c r="W2" s="798"/>
-      <c r="X2" s="798"/>
-      <c r="Y2" s="798"/>
-      <c r="Z2" s="798"/>
-      <c r="AA2" s="799"/>
-      <c r="AB2" s="789" t="s">
+      <c r="V2" s="797"/>
+      <c r="W2" s="797"/>
+      <c r="X2" s="797"/>
+      <c r="Y2" s="797"/>
+      <c r="Z2" s="797"/>
+      <c r="AA2" s="798"/>
+      <c r="AB2" s="788" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="789"/>
-      <c r="AD2" s="789"/>
-      <c r="AE2" s="789"/>
-      <c r="AG2" s="789" t="s">
+      <c r="AC2" s="788"/>
+      <c r="AD2" s="788"/>
+      <c r="AE2" s="788"/>
+      <c r="AG2" s="788" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="807"/>
+      <c r="B3" s="808"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -27367,8 +27407,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="795"/>
-      <c r="T3" s="796"/>
+      <c r="S3" s="794"/>
+      <c r="T3" s="795"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -27402,7 +27442,7 @@
       <c r="AE3" s="697" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="789"/>
+      <c r="AG3" s="788"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -31212,19 +31252,19 @@
       <c r="AG62" s="86"/>
     </row>
     <row r="63" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A63" s="802" t="s">
+      <c r="A63" s="801" t="s">
         <v>377</v>
       </c>
-      <c r="B63" s="803"/>
+      <c r="B63" s="802"/>
       <c r="C63" s="580"/>
       <c r="D63" s="580"/>
       <c r="E63" s="581"/>
-      <c r="F63" s="813">
+      <c r="F63" s="812">
         <f>SUM(F4:H62)</f>
         <v>10300000</v>
       </c>
-      <c r="G63" s="814"/>
-      <c r="H63" s="815"/>
+      <c r="G63" s="813"/>
+      <c r="H63" s="814"/>
       <c r="I63" s="690"/>
       <c r="J63" s="696">
         <v>970</v>
@@ -31242,10 +31282,10 @@
       </c>
       <c r="P63" s="555"/>
       <c r="Q63" s="556"/>
-      <c r="S63" s="804" t="s">
+      <c r="S63" s="803" t="s">
         <v>377</v>
       </c>
-      <c r="T63" s="805"/>
+      <c r="T63" s="804"/>
       <c r="U63" s="628">
         <f>SUM(U4:U62)</f>
         <v>157</v>
@@ -31341,56 +31381,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="805" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
-      <c r="J2" s="790" t="s">
+      <c r="B2" s="806"/>
+      <c r="C2" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="810"/>
+      <c r="E2" s="810"/>
+      <c r="F2" s="810"/>
+      <c r="G2" s="810"/>
+      <c r="H2" s="810"/>
+      <c r="I2" s="811"/>
+      <c r="J2" s="789" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="791"/>
-      <c r="L2" s="791"/>
-      <c r="M2" s="791"/>
-      <c r="N2" s="791"/>
-      <c r="O2" s="791"/>
-      <c r="P2" s="791"/>
-      <c r="Q2" s="792"/>
+      <c r="K2" s="790"/>
+      <c r="L2" s="790"/>
+      <c r="M2" s="790"/>
+      <c r="N2" s="790"/>
+      <c r="O2" s="790"/>
+      <c r="P2" s="790"/>
+      <c r="Q2" s="791"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="793" t="s">
+      <c r="S2" s="792" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="794"/>
-      <c r="U2" s="797" t="s">
+      <c r="T2" s="793"/>
+      <c r="U2" s="796" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="798"/>
-      <c r="W2" s="798"/>
-      <c r="X2" s="798"/>
-      <c r="Y2" s="798"/>
-      <c r="Z2" s="798"/>
-      <c r="AA2" s="799"/>
-      <c r="AB2" s="789" t="s">
+      <c r="V2" s="797"/>
+      <c r="W2" s="797"/>
+      <c r="X2" s="797"/>
+      <c r="Y2" s="797"/>
+      <c r="Z2" s="797"/>
+      <c r="AA2" s="798"/>
+      <c r="AB2" s="788" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="789"/>
-      <c r="AD2" s="789"/>
-      <c r="AE2" s="789"/>
-      <c r="AG2" s="789" t="s">
+      <c r="AC2" s="788"/>
+      <c r="AD2" s="788"/>
+      <c r="AE2" s="788"/>
+      <c r="AG2" s="788" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="807"/>
+      <c r="B3" s="808"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -31437,8 +31477,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="795"/>
-      <c r="T3" s="796"/>
+      <c r="S3" s="794"/>
+      <c r="T3" s="795"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -31472,7 +31512,7 @@
       <c r="AE3" s="758" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="789"/>
+      <c r="AG3" s="788"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -35328,19 +35368,19 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="802" t="s">
+      <c r="A64" s="801" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="803"/>
+      <c r="B64" s="802"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
-      <c r="F64" s="813">
+      <c r="F64" s="812">
         <f>SUM(F4:H63)</f>
         <v>10400000</v>
       </c>
-      <c r="G64" s="814"/>
-      <c r="H64" s="815"/>
+      <c r="G64" s="813"/>
+      <c r="H64" s="814"/>
       <c r="I64" s="690"/>
       <c r="J64" s="761">
         <f>SUM(J4:J63)</f>
@@ -35359,10 +35399,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="804" t="s">
+      <c r="S64" s="803" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="805"/>
+      <c r="T64" s="804"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -35458,56 +35498,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="805" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
-      <c r="J2" s="790" t="s">
+      <c r="B2" s="806"/>
+      <c r="C2" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="810"/>
+      <c r="E2" s="810"/>
+      <c r="F2" s="810"/>
+      <c r="G2" s="810"/>
+      <c r="H2" s="810"/>
+      <c r="I2" s="811"/>
+      <c r="J2" s="789" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="791"/>
-      <c r="L2" s="791"/>
-      <c r="M2" s="791"/>
-      <c r="N2" s="791"/>
-      <c r="O2" s="791"/>
-      <c r="P2" s="791"/>
-      <c r="Q2" s="792"/>
+      <c r="K2" s="790"/>
+      <c r="L2" s="790"/>
+      <c r="M2" s="790"/>
+      <c r="N2" s="790"/>
+      <c r="O2" s="790"/>
+      <c r="P2" s="790"/>
+      <c r="Q2" s="791"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="793" t="s">
+      <c r="S2" s="792" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="794"/>
-      <c r="U2" s="797" t="s">
+      <c r="T2" s="793"/>
+      <c r="U2" s="796" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="798"/>
-      <c r="W2" s="798"/>
-      <c r="X2" s="798"/>
-      <c r="Y2" s="798"/>
-      <c r="Z2" s="798"/>
-      <c r="AA2" s="799"/>
-      <c r="AB2" s="789" t="s">
+      <c r="V2" s="797"/>
+      <c r="W2" s="797"/>
+      <c r="X2" s="797"/>
+      <c r="Y2" s="797"/>
+      <c r="Z2" s="797"/>
+      <c r="AA2" s="798"/>
+      <c r="AB2" s="788" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="789"/>
-      <c r="AD2" s="789"/>
-      <c r="AE2" s="789"/>
-      <c r="AG2" s="789" t="s">
+      <c r="AC2" s="788"/>
+      <c r="AD2" s="788"/>
+      <c r="AE2" s="788"/>
+      <c r="AG2" s="788" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="807"/>
+      <c r="B3" s="808"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -35554,8 +35594,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="795"/>
-      <c r="T3" s="796"/>
+      <c r="S3" s="794"/>
+      <c r="T3" s="795"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -35589,7 +35629,7 @@
       <c r="AE3" s="771" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="789"/>
+      <c r="AG3" s="788"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -39441,19 +39481,19 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="802" t="s">
+      <c r="A64" s="801" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="803"/>
+      <c r="B64" s="802"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
-      <c r="F64" s="813">
+      <c r="F64" s="812">
         <f>SUM(F4:H63)</f>
         <v>10400000</v>
       </c>
-      <c r="G64" s="814"/>
-      <c r="H64" s="815"/>
+      <c r="G64" s="813"/>
+      <c r="H64" s="814"/>
       <c r="I64" s="690"/>
       <c r="J64" s="761">
         <f>SUM(J4:J63)</f>
@@ -39472,10 +39512,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="804" t="s">
+      <c r="S64" s="803" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="805"/>
+      <c r="T64" s="804"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -39571,56 +39611,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="805" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
-      <c r="J2" s="790" t="s">
+      <c r="B2" s="806"/>
+      <c r="C2" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="810"/>
+      <c r="E2" s="810"/>
+      <c r="F2" s="810"/>
+      <c r="G2" s="810"/>
+      <c r="H2" s="810"/>
+      <c r="I2" s="811"/>
+      <c r="J2" s="789" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="791"/>
-      <c r="L2" s="791"/>
-      <c r="M2" s="791"/>
-      <c r="N2" s="791"/>
-      <c r="O2" s="791"/>
-      <c r="P2" s="791"/>
-      <c r="Q2" s="792"/>
+      <c r="K2" s="790"/>
+      <c r="L2" s="790"/>
+      <c r="M2" s="790"/>
+      <c r="N2" s="790"/>
+      <c r="O2" s="790"/>
+      <c r="P2" s="790"/>
+      <c r="Q2" s="791"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="793" t="s">
+      <c r="S2" s="792" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="794"/>
-      <c r="U2" s="797" t="s">
+      <c r="T2" s="793"/>
+      <c r="U2" s="796" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="798"/>
-      <c r="W2" s="798"/>
-      <c r="X2" s="798"/>
-      <c r="Y2" s="798"/>
-      <c r="Z2" s="798"/>
-      <c r="AA2" s="799"/>
-      <c r="AB2" s="789" t="s">
+      <c r="V2" s="797"/>
+      <c r="W2" s="797"/>
+      <c r="X2" s="797"/>
+      <c r="Y2" s="797"/>
+      <c r="Z2" s="797"/>
+      <c r="AA2" s="798"/>
+      <c r="AB2" s="788" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="789"/>
-      <c r="AD2" s="789"/>
-      <c r="AE2" s="789"/>
-      <c r="AG2" s="789" t="s">
+      <c r="AC2" s="788"/>
+      <c r="AD2" s="788"/>
+      <c r="AE2" s="788"/>
+      <c r="AG2" s="788" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="807"/>
+      <c r="B3" s="808"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -39667,8 +39707,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="795"/>
-      <c r="T3" s="796"/>
+      <c r="S3" s="794"/>
+      <c r="T3" s="795"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -39702,7 +39742,7 @@
       <c r="AE3" s="770" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="789"/>
+      <c r="AG3" s="788"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -43550,19 +43590,19 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="802" t="s">
+      <c r="A64" s="801" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="803"/>
+      <c r="B64" s="802"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
-      <c r="F64" s="813">
+      <c r="F64" s="812">
         <f>SUM(F4:H63)</f>
         <v>10400000</v>
       </c>
-      <c r="G64" s="814"/>
-      <c r="H64" s="815"/>
+      <c r="G64" s="813"/>
+      <c r="H64" s="814"/>
       <c r="I64" s="690"/>
       <c r="J64" s="761">
         <v>991</v>
@@ -43580,10 +43620,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="804" t="s">
+      <c r="S64" s="803" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="805"/>
+      <c r="T64" s="804"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -43679,56 +43719,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="805" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
-      <c r="J2" s="790" t="s">
+      <c r="B2" s="806"/>
+      <c r="C2" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="810"/>
+      <c r="E2" s="810"/>
+      <c r="F2" s="810"/>
+      <c r="G2" s="810"/>
+      <c r="H2" s="810"/>
+      <c r="I2" s="811"/>
+      <c r="J2" s="789" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="791"/>
-      <c r="L2" s="791"/>
-      <c r="M2" s="791"/>
-      <c r="N2" s="791"/>
-      <c r="O2" s="791"/>
-      <c r="P2" s="791"/>
-      <c r="Q2" s="792"/>
+      <c r="K2" s="790"/>
+      <c r="L2" s="790"/>
+      <c r="M2" s="790"/>
+      <c r="N2" s="790"/>
+      <c r="O2" s="790"/>
+      <c r="P2" s="790"/>
+      <c r="Q2" s="791"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="793" t="s">
+      <c r="S2" s="792" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="794"/>
-      <c r="U2" s="797" t="s">
+      <c r="T2" s="793"/>
+      <c r="U2" s="796" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="798"/>
-      <c r="W2" s="798"/>
-      <c r="X2" s="798"/>
-      <c r="Y2" s="798"/>
-      <c r="Z2" s="798"/>
-      <c r="AA2" s="799"/>
-      <c r="AB2" s="789" t="s">
+      <c r="V2" s="797"/>
+      <c r="W2" s="797"/>
+      <c r="X2" s="797"/>
+      <c r="Y2" s="797"/>
+      <c r="Z2" s="797"/>
+      <c r="AA2" s="798"/>
+      <c r="AB2" s="788" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="789"/>
-      <c r="AD2" s="789"/>
-      <c r="AE2" s="789"/>
-      <c r="AG2" s="789" t="s">
+      <c r="AC2" s="788"/>
+      <c r="AD2" s="788"/>
+      <c r="AE2" s="788"/>
+      <c r="AG2" s="788" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="807"/>
+      <c r="B3" s="808"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -43775,8 +43815,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="795"/>
-      <c r="T3" s="796"/>
+      <c r="S3" s="794"/>
+      <c r="T3" s="795"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -43810,7 +43850,7 @@
       <c r="AE3" s="778" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="789"/>
+      <c r="AG3" s="788"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -47658,19 +47698,19 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="802" t="s">
+      <c r="A64" s="801" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="803"/>
+      <c r="B64" s="802"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
-      <c r="F64" s="813">
+      <c r="F64" s="812">
         <f>SUM(F4:H63)</f>
         <v>10400000</v>
       </c>
-      <c r="G64" s="814"/>
-      <c r="H64" s="815"/>
+      <c r="G64" s="813"/>
+      <c r="H64" s="814"/>
       <c r="I64" s="690"/>
       <c r="J64" s="761">
         <v>991</v>
@@ -47688,10 +47728,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="804" t="s">
+      <c r="S64" s="803" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="805"/>
+      <c r="T64" s="804"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -47787,56 +47827,56 @@
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="805" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
-      <c r="J2" s="790" t="s">
+      <c r="B2" s="806"/>
+      <c r="C2" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="810"/>
+      <c r="E2" s="810"/>
+      <c r="F2" s="810"/>
+      <c r="G2" s="810"/>
+      <c r="H2" s="810"/>
+      <c r="I2" s="811"/>
+      <c r="J2" s="789" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="791"/>
-      <c r="L2" s="791"/>
-      <c r="M2" s="791"/>
-      <c r="N2" s="791"/>
-      <c r="O2" s="791"/>
-      <c r="P2" s="791"/>
-      <c r="Q2" s="792"/>
+      <c r="K2" s="790"/>
+      <c r="L2" s="790"/>
+      <c r="M2" s="790"/>
+      <c r="N2" s="790"/>
+      <c r="O2" s="790"/>
+      <c r="P2" s="790"/>
+      <c r="Q2" s="791"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="793" t="s">
+      <c r="S2" s="792" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="794"/>
-      <c r="U2" s="797" t="s">
+      <c r="T2" s="793"/>
+      <c r="U2" s="796" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="798"/>
-      <c r="W2" s="798"/>
-      <c r="X2" s="798"/>
-      <c r="Y2" s="798"/>
-      <c r="Z2" s="798"/>
-      <c r="AA2" s="799"/>
-      <c r="AB2" s="789" t="s">
+      <c r="V2" s="797"/>
+      <c r="W2" s="797"/>
+      <c r="X2" s="797"/>
+      <c r="Y2" s="797"/>
+      <c r="Z2" s="797"/>
+      <c r="AA2" s="798"/>
+      <c r="AB2" s="788" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="789"/>
-      <c r="AD2" s="789"/>
-      <c r="AE2" s="789"/>
-      <c r="AG2" s="789" t="s">
+      <c r="AC2" s="788"/>
+      <c r="AD2" s="788"/>
+      <c r="AE2" s="788"/>
+      <c r="AG2" s="788" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="807"/>
+      <c r="B3" s="808"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -47883,8 +47923,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="795"/>
-      <c r="T3" s="796"/>
+      <c r="S3" s="794"/>
+      <c r="T3" s="795"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -47918,7 +47958,7 @@
       <c r="AE3" s="779" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="789"/>
+      <c r="AG3" s="788"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -51766,19 +51806,19 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="802" t="s">
+      <c r="A64" s="801" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="803"/>
+      <c r="B64" s="802"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
-      <c r="F64" s="813">
+      <c r="F64" s="812">
         <f>SUM(F4:H63)</f>
         <v>10300000</v>
       </c>
-      <c r="G64" s="814"/>
-      <c r="H64" s="815"/>
+      <c r="G64" s="813"/>
+      <c r="H64" s="814"/>
       <c r="I64" s="690"/>
       <c r="J64" s="761">
         <f>SUM(J4:J63)</f>
@@ -51797,10 +51837,10 @@
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="804" t="s">
+      <c r="S64" s="803" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="805"/>
+      <c r="T64" s="804"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
         <v>157</v>
@@ -51846,12 +51886,12 @@
   </sheetPr>
   <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I1" sqref="I1:I1048576"/>
       <selection pane="topRight" activeCell="I1" sqref="I1:I1048576"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" sqref="A1:AA64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -51865,7 +51905,8 @@
     <col min="7" max="7" width="10.125" style="390" customWidth="1"/>
     <col min="8" max="8" width="9.875" style="390" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="390" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="6.125" style="390" customWidth="1"/>
+    <col min="10" max="10" width="6.125" style="390" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="390" customWidth="1"/>
     <col min="12" max="12" width="8.75" style="389" customWidth="1"/>
     <col min="13" max="13" width="7.5" style="389" customWidth="1"/>
     <col min="14" max="14" width="7.125" style="391" customWidth="1"/>
@@ -51890,62 +51931,62 @@
     <row r="1" spans="1:35" ht="33" customHeight="1" thickBot="1">
       <c r="G1" s="381"/>
       <c r="N1" s="507" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="V1" s="507"/>
       <c r="Y1" s="381"/>
     </row>
     <row r="2" spans="1:35" s="390" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="806" t="s">
+      <c r="A2" s="805" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="807"/>
-      <c r="C2" s="810" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="811"/>
-      <c r="E2" s="811"/>
-      <c r="F2" s="811"/>
-      <c r="G2" s="811"/>
-      <c r="H2" s="811"/>
-      <c r="I2" s="812"/>
-      <c r="J2" s="790" t="s">
+      <c r="B2" s="806"/>
+      <c r="C2" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="810"/>
+      <c r="E2" s="810"/>
+      <c r="F2" s="810"/>
+      <c r="G2" s="810"/>
+      <c r="H2" s="810"/>
+      <c r="I2" s="811"/>
+      <c r="J2" s="789" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="791"/>
-      <c r="L2" s="791"/>
-      <c r="M2" s="791"/>
-      <c r="N2" s="791"/>
-      <c r="O2" s="791"/>
-      <c r="P2" s="791"/>
-      <c r="Q2" s="792"/>
+      <c r="K2" s="790"/>
+      <c r="L2" s="790"/>
+      <c r="M2" s="790"/>
+      <c r="N2" s="790"/>
+      <c r="O2" s="790"/>
+      <c r="P2" s="790"/>
+      <c r="Q2" s="791"/>
       <c r="R2" s="398"/>
-      <c r="S2" s="793" t="s">
+      <c r="S2" s="792" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="794"/>
-      <c r="U2" s="797" t="s">
+      <c r="T2" s="793"/>
+      <c r="U2" s="796" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="798"/>
-      <c r="W2" s="798"/>
-      <c r="X2" s="798"/>
-      <c r="Y2" s="798"/>
-      <c r="Z2" s="798"/>
-      <c r="AA2" s="799"/>
-      <c r="AB2" s="789" t="s">
+      <c r="V2" s="797"/>
+      <c r="W2" s="797"/>
+      <c r="X2" s="797"/>
+      <c r="Y2" s="797"/>
+      <c r="Z2" s="797"/>
+      <c r="AA2" s="798"/>
+      <c r="AB2" s="788" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="789"/>
-      <c r="AD2" s="789"/>
-      <c r="AE2" s="789"/>
-      <c r="AG2" s="789" t="s">
+      <c r="AC2" s="788"/>
+      <c r="AD2" s="788"/>
+      <c r="AE2" s="788"/>
+      <c r="AG2" s="788" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="390" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A3" s="808"/>
-      <c r="B3" s="809"/>
+      <c r="A3" s="807"/>
+      <c r="B3" s="808"/>
       <c r="C3" s="467" t="s">
         <v>46</v>
       </c>
@@ -51992,8 +52033,8 @@
         <v>161</v>
       </c>
       <c r="R3" s="399"/>
-      <c r="S3" s="795"/>
-      <c r="T3" s="796"/>
+      <c r="S3" s="794"/>
+      <c r="T3" s="795"/>
       <c r="U3" s="585" t="s">
         <v>329</v>
       </c>
@@ -52027,7 +52068,7 @@
       <c r="AE3" s="787" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="789"/>
+      <c r="AG3" s="788"/>
     </row>
     <row r="4" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="614" t="s">
@@ -52051,10 +52092,10 @@
       <c r="H4" s="518"/>
       <c r="I4" s="520"/>
       <c r="J4" s="636">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" s="518">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L4" s="517">
         <v>30000</v>
@@ -52068,7 +52109,7 @@
       </c>
       <c r="O4" s="147">
         <f>K4*N4*3</f>
-        <v>8040000</v>
+        <v>8160000</v>
       </c>
       <c r="P4" s="525" t="s">
         <v>137</v>
@@ -52084,10 +52125,10 @@
         <v>5</v>
       </c>
       <c r="U4" s="538">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V4" s="686">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W4" s="451">
         <v>50000</v>
@@ -52099,11 +52140,9 @@
       </c>
       <c r="Z4" s="452">
         <f>V4*Y4</f>
-        <v>200000</v>
-      </c>
-      <c r="AA4" s="742" t="s">
-        <v>420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="742"/>
       <c r="AB4" s="79">
         <v>37641</v>
       </c>
@@ -52116,7 +52155,9 @@
       <c r="AE4" s="80">
         <v>40410</v>
       </c>
-      <c r="AG4" s="78"/>
+      <c r="AG4" s="742" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="5" spans="1:35" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="614" t="s">
@@ -52402,10 +52443,10 @@
         <v>332</v>
       </c>
       <c r="U9" s="430">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="V9" s="60">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="W9" s="415">
         <v>15000</v>
@@ -52488,10 +52529,10 @@
         <v>65</v>
       </c>
       <c r="U10" s="217">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="V10" s="385">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="W10" s="725">
         <v>15000</v>
@@ -52526,7 +52567,7 @@
         <v>340</v>
       </c>
       <c r="B11" s="592" t="s">
-        <v>64</v>
+        <v>389</v>
       </c>
       <c r="C11" s="411"/>
       <c r="D11" s="290"/>
@@ -52565,13 +52606,19 @@
       <c r="T11" s="681" t="s">
         <v>64</v>
       </c>
-      <c r="U11" s="221"/>
-      <c r="V11" s="387"/>
-      <c r="W11" s="726"/>
-      <c r="X11" s="726"/>
-      <c r="Y11" s="416">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="U11" s="217">
+        <v>29</v>
+      </c>
+      <c r="V11" s="385">
+        <v>29</v>
+      </c>
+      <c r="W11" s="725">
+        <v>15000</v>
+      </c>
+      <c r="X11" s="725"/>
+      <c r="Y11" s="415">
+        <f t="shared" ref="Y11" si="5">SUM(W11:X11)</f>
+        <v>15000</v>
       </c>
       <c r="Z11" s="164">
         <v>0</v>
@@ -52638,10 +52685,10 @@
         <v>11</v>
       </c>
       <c r="U12" s="456">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V12" s="455">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W12" s="727">
         <v>15000</v>
@@ -52756,10 +52803,10 @@
         <v>300000</v>
       </c>
       <c r="J14" s="430">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K14" s="60">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L14" s="626">
         <v>50000</v>
@@ -52771,7 +52818,10 @@
         <f t="shared" si="1"/>
         <v>55000</v>
       </c>
-      <c r="O14" s="155"/>
+      <c r="O14" s="155">
+        <f>K14*N14</f>
+        <v>7370000</v>
+      </c>
       <c r="P14" s="51" t="s">
         <v>323</v>
       </c>
@@ -52840,7 +52890,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="G15" s="385"/>
+      <c r="G15" s="846"/>
       <c r="H15" s="385"/>
       <c r="I15" s="487">
         <v>300000</v>
@@ -52895,7 +52945,7 @@
       <c r="F16" s="61">
         <v>100000</v>
       </c>
-      <c r="G16" s="387"/>
+      <c r="G16" s="847"/>
       <c r="H16" s="387"/>
       <c r="I16" s="485"/>
       <c r="J16" s="221"/>
@@ -52947,7 +52997,9 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="G17" s="429"/>
+      <c r="G17" s="848" t="s">
+        <v>445</v>
+      </c>
       <c r="H17" s="60"/>
       <c r="I17" s="484">
         <v>300000</v>
@@ -53025,7 +53077,7 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="G18" s="382"/>
+      <c r="G18" s="849"/>
       <c r="H18" s="46"/>
       <c r="I18" s="482">
         <v>300000</v>
@@ -53089,14 +53141,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="441"/>
+      <c r="G19" s="850"/>
       <c r="H19" s="441"/>
       <c r="I19" s="488"/>
       <c r="J19" s="440">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19" s="441">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L19" s="278">
         <v>30000</v>
@@ -53110,7 +53162,7 @@
       </c>
       <c r="O19" s="118">
         <f t="shared" si="2"/>
-        <v>1785000</v>
+        <v>1820000</v>
       </c>
       <c r="P19" s="351"/>
       <c r="Q19" s="607"/>
@@ -53303,10 +53355,10 @@
       <c r="H22" s="441"/>
       <c r="I22" s="488"/>
       <c r="J22" s="440">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K22" s="441">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L22" s="286">
         <v>30000</v>
@@ -53320,7 +53372,7 @@
       </c>
       <c r="O22" s="118">
         <f t="shared" si="2"/>
-        <v>680000</v>
+        <v>720000</v>
       </c>
       <c r="P22" s="351"/>
       <c r="Q22" s="607"/>
@@ -53375,10 +53427,10 @@
       <c r="H23" s="437"/>
       <c r="I23" s="570"/>
       <c r="J23" s="459">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="145">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="304">
         <v>30000</v>
@@ -53392,7 +53444,7 @@
       </c>
       <c r="O23" s="147">
         <f t="shared" si="2"/>
-        <v>1400000</v>
+        <v>1440000</v>
       </c>
       <c r="P23" s="144" t="s">
         <v>144</v>
@@ -53507,10 +53559,10 @@
       <c r="H25" s="455"/>
       <c r="I25" s="490"/>
       <c r="J25" s="456">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K25" s="455">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L25" s="304">
         <v>30000</v>
@@ -53524,7 +53576,7 @@
       </c>
       <c r="O25" s="147">
         <f t="shared" si="2"/>
-        <v>1440000</v>
+        <v>1480000</v>
       </c>
       <c r="P25" s="144" t="s">
         <v>145</v>
@@ -53637,10 +53689,10 @@
         <v>300000</v>
       </c>
       <c r="J27" s="464">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K27" s="463">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L27" s="288">
         <v>30000</v>
@@ -53654,7 +53706,7 @@
       </c>
       <c r="O27" s="155">
         <f t="shared" si="2"/>
-        <v>1280000</v>
+        <v>1400000</v>
       </c>
       <c r="P27" s="51" t="s">
         <v>146</v>
@@ -53807,10 +53859,10 @@
       <c r="H30" s="145"/>
       <c r="I30" s="480"/>
       <c r="J30" s="459">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K30" s="145">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L30" s="304"/>
       <c r="M30" s="304"/>
@@ -53828,10 +53880,10 @@
         <v>26</v>
       </c>
       <c r="U30" s="247">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V30" s="383">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W30" s="725">
         <v>30000</v>
@@ -53845,10 +53897,10 @@
       </c>
       <c r="Z30" s="125">
         <f t="shared" si="3"/>
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="AA30" s="746" t="s">
-        <v>328</v>
+        <v>446</v>
       </c>
       <c r="AB30" s="79">
         <v>40633</v>
@@ -54286,10 +54338,10 @@
       <c r="H37" s="455"/>
       <c r="I37" s="490"/>
       <c r="J37" s="456">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K37" s="455">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L37" s="304">
         <v>30000</v>
@@ -54303,7 +54355,7 @@
       </c>
       <c r="O37" s="147">
         <f t="shared" si="2"/>
-        <v>210000</v>
+        <v>245000</v>
       </c>
       <c r="P37" s="144" t="s">
         <v>147</v>
@@ -54763,10 +54815,10 @@
       <c r="H45" s="463"/>
       <c r="I45" s="492"/>
       <c r="J45" s="464">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45" s="463">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L45" s="288"/>
       <c r="M45" s="288"/>
@@ -55686,10 +55738,10 @@
       <c r="H61" s="385"/>
       <c r="I61" s="487"/>
       <c r="J61" s="217">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K61" s="385">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L61" s="284">
         <v>30000</v>
@@ -55701,7 +55753,7 @@
       </c>
       <c r="O61" s="113">
         <f t="shared" si="2"/>
-        <v>810000</v>
+        <v>840000</v>
       </c>
       <c r="P61" s="43"/>
       <c r="Q61" s="606" t="s">
@@ -55875,55 +55927,55 @@
       <c r="AG63" s="86"/>
     </row>
     <row r="64" spans="1:33" s="390" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A64" s="802" t="s">
+      <c r="A64" s="801" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="803"/>
+      <c r="B64" s="802"/>
       <c r="C64" s="580"/>
       <c r="D64" s="580"/>
       <c r="E64" s="581"/>
-      <c r="F64" s="813">
+      <c r="F64" s="812">
         <f>SUM(F4:H63)</f>
         <v>10300000</v>
       </c>
-      <c r="G64" s="814"/>
-      <c r="H64" s="815"/>
+      <c r="G64" s="813"/>
+      <c r="H64" s="814"/>
       <c r="I64" s="690"/>
       <c r="J64" s="761">
         <f>SUM(J4:J63)</f>
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="K64" s="762">
         <f>SUM(K4:K63)</f>
-        <v>988</v>
+        <v>1002</v>
       </c>
       <c r="L64" s="763"/>
       <c r="M64" s="763"/>
       <c r="N64" s="764"/>
       <c r="O64" s="762">
         <f>SUM(O4:O63)</f>
-        <v>31825000</v>
+        <v>39655000</v>
       </c>
       <c r="P64" s="764"/>
       <c r="Q64" s="765"/>
-      <c r="S64" s="804" t="s">
+      <c r="S64" s="803" t="s">
         <v>377</v>
       </c>
-      <c r="T64" s="805"/>
+      <c r="T64" s="804"/>
       <c r="U64" s="628">
         <f>SUM(U4:U63)</f>
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="V64" s="629">
         <f>SUM(V4:V63)</f>
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="W64" s="630"/>
       <c r="X64" s="630"/>
       <c r="Y64" s="631"/>
       <c r="Z64" s="629">
         <f>SUM(Z4:Z63)</f>
-        <v>490000</v>
+        <v>250000</v>
       </c>
       <c r="AA64" s="757"/>
       <c r="AB64" s="627"/>
